--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_11_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_11_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2874789.971368534</v>
+        <v>-2875564.898596905</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681855</v>
+        <v>590120.9651681856</v>
       </c>
     </row>
     <row r="9">
@@ -1148,10 +1148,10 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>5.130936752591026</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>5.130936752591023</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,55 +1215,55 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>13.08407736769427</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>13.08407736769428</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="I10" t="n">
-        <v>13.08407736769427</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.85476540383092</v>
+        <v>13.16443305369184</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.9248492448861</v>
+        <v>261.924849244886</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>261.3264750087785</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.5023027340318</v>
       </c>
       <c r="G11" t="n">
-        <v>292.5415536609158</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>211.0099843746992</v>
       </c>
       <c r="I11" t="n">
-        <v>63.32179708266415</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.18626889642348</v>
+        <v>72.18626889642343</v>
       </c>
       <c r="T11" t="n">
-        <v>98.89002921314317</v>
+        <v>98.89002921314311</v>
       </c>
       <c r="U11" t="n">
-        <v>129.644470750323</v>
+        <v>129.6444707503229</v>
       </c>
       <c r="V11" t="n">
-        <v>206.7416607760104</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>51.19625812034204</v>
+        <v>228.7385562540456</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>249.0700383846604</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>111.8168472759728</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1449,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>49.23402318089204</v>
+        <v>49.23402318089198</v>
       </c>
       <c r="D12" t="n">
-        <v>24.32086282813661</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>129.540530421275</v>
       </c>
       <c r="G12" t="n">
-        <v>13.95254156927696</v>
+        <v>13.95254156927691</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.98574653193862</v>
+        <v>41.98574653193857</v>
       </c>
       <c r="T12" t="n">
-        <v>183.2918295871057</v>
+        <v>75.46597050287092</v>
       </c>
       <c r="U12" t="n">
-        <v>102.847253959557</v>
+        <v>102.8472539595569</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>110.1171702931461</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -1515,7 +1515,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.87959067207707</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.29213074417486</v>
+        <v>58.2921307441748</v>
       </c>
       <c r="C13" t="n">
-        <v>45.54499218469338</v>
+        <v>45.54499218469333</v>
       </c>
       <c r="D13" t="n">
-        <v>27.21400576801041</v>
+        <v>27.21400576801035</v>
       </c>
       <c r="E13" t="n">
-        <v>25.18306342669023</v>
+        <v>13.40721586383707</v>
       </c>
       <c r="F13" t="n">
-        <v>24.36746066329555</v>
+        <v>24.36746066329549</v>
       </c>
       <c r="G13" t="n">
-        <v>45.86403350508821</v>
+        <v>45.86403350508815</v>
       </c>
       <c r="H13" t="n">
-        <v>37.76208584801091</v>
+        <v>37.76208584801087</v>
       </c>
       <c r="I13" t="n">
-        <v>24.93012790076669</v>
+        <v>24.93012790076665</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.07833528768298</v>
+        <v>41.07833528768293</v>
       </c>
       <c r="S13" t="n">
-        <v>96.48795713577351</v>
+        <v>96.48795713577346</v>
       </c>
       <c r="T13" t="n">
         <v>105.5411098004521</v>
       </c>
       <c r="U13" t="n">
-        <v>164.2479462984547</v>
+        <v>164.2479462984546</v>
       </c>
       <c r="V13" t="n">
         <v>131.1447903204302</v>
       </c>
       <c r="W13" t="n">
-        <v>164.3010161409066</v>
+        <v>164.3010161409065</v>
       </c>
       <c r="X13" t="n">
-        <v>92.57295162294676</v>
+        <v>104.3487991858002</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.95711312125927</v>
+        <v>96.95711312125921</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>261.9248492448861</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>245.1935349324337</v>
       </c>
       <c r="D14" t="n">
-        <v>193.8148283344238</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>261.3264750087785</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.5023027340319</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.5415536609157</v>
       </c>
       <c r="H14" t="n">
-        <v>211.0099843746992</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>95.55297077112874</v>
       </c>
       <c r="V14" t="n">
         <v>206.7416607760104</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>249.0700383846604</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.8955110047269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,22 +1689,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>24.32086282813661</v>
+        <v>132.1467219123711</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>34.24187296066486</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.71467133704033</v>
       </c>
       <c r="G15" t="n">
-        <v>44.88449284884167</v>
+        <v>13.95254156927695</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>76.89390780467001</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>41.98574653193862</v>
+        <v>41.98574653193861</v>
       </c>
       <c r="T15" t="n">
-        <v>75.46597050287097</v>
+        <v>75.46597050287096</v>
       </c>
       <c r="U15" t="n">
         <v>102.847253959557</v>
       </c>
       <c r="V15" t="n">
-        <v>110.1171702931462</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.67006886196931</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.29213074417486</v>
+        <v>58.29213074417484</v>
       </c>
       <c r="C16" t="n">
-        <v>33.76914462183903</v>
+        <v>45.54499218469337</v>
       </c>
       <c r="D16" t="n">
-        <v>27.21400576801041</v>
+        <v>27.2140057680104</v>
       </c>
       <c r="E16" t="n">
-        <v>25.18306342669023</v>
+        <v>25.18306342669021</v>
       </c>
       <c r="F16" t="n">
-        <v>24.36746066329555</v>
+        <v>24.36746066329553</v>
       </c>
       <c r="G16" t="n">
-        <v>45.86403350508822</v>
+        <v>45.8640335050882</v>
       </c>
       <c r="H16" t="n">
-        <v>37.76208584801093</v>
+        <v>37.76208584801091</v>
       </c>
       <c r="I16" t="n">
-        <v>24.93012790076669</v>
+        <v>24.93012790076668</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.07833528768298</v>
+        <v>41.07833528768296</v>
       </c>
       <c r="S16" t="n">
-        <v>96.48795713577353</v>
+        <v>96.48795713577351</v>
       </c>
       <c r="T16" t="n">
         <v>105.5411098004521</v>
@@ -1828,10 +1828,10 @@
         <v>164.3010161409066</v>
       </c>
       <c r="X16" t="n">
-        <v>104.3487991858003</v>
+        <v>92.57295162294589</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.95711312125927</v>
+        <v>96.95711312125925</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.0399524111015</v>
+        <v>160.0399524111014</v>
       </c>
       <c r="C17" t="n">
-        <v>143.3086380986491</v>
+        <v>143.308638098649</v>
       </c>
       <c r="D17" t="n">
         <v>132.9282751743048</v>
       </c>
       <c r="E17" t="n">
-        <v>159.4415781749939</v>
+        <v>159.4415781749938</v>
       </c>
       <c r="F17" t="n">
-        <v>183.6174059002473</v>
+        <v>183.6174059002472</v>
       </c>
       <c r="G17" t="n">
-        <v>190.6566568271312</v>
+        <v>190.6566568271311</v>
       </c>
       <c r="H17" t="n">
-        <v>109.1250875409146</v>
+        <v>109.1250875409145</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.75957391653839</v>
+        <v>27.75957391653781</v>
       </c>
       <c r="V17" t="n">
-        <v>104.8567639422258</v>
+        <v>104.8567639422257</v>
       </c>
       <c r="W17" t="n">
         <v>126.853659420261</v>
@@ -1910,7 +1910,7 @@
         <v>147.1851415508758</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.0106141709423</v>
+        <v>163.0106141709422</v>
       </c>
     </row>
     <row r="18">
@@ -1923,13 +1923,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>51.6035404930083</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7773072784476</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2575312493799</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9623571257723841</v>
+        <v>224.6388147060659</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -1989,7 +1989,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>132.9084611842881</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>146.7216886472756</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.2129313093022</v>
       </c>
       <c r="T19" t="n">
-        <v>3.656212966667519</v>
+        <v>3.656212966667434</v>
       </c>
       <c r="U19" t="n">
-        <v>62.36304946467008</v>
+        <v>62.36304946466999</v>
       </c>
       <c r="V19" t="n">
-        <v>29.25989348664561</v>
+        <v>29.25989348664552</v>
       </c>
       <c r="W19" t="n">
-        <v>111.9073619691481</v>
+        <v>62.4161193071219</v>
       </c>
       <c r="X19" t="n">
-        <v>2.463902352015708</v>
+        <v>2.463902352015623</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>160.0399524111015</v>
+        <v>160.0399524111014</v>
       </c>
       <c r="C20" t="n">
-        <v>143.3086380986491</v>
+        <v>143.308638098649</v>
       </c>
       <c r="D20" t="n">
         <v>132.9282751743048</v>
       </c>
       <c r="E20" t="n">
-        <v>159.4415781749939</v>
+        <v>159.4415781749938</v>
       </c>
       <c r="F20" t="n">
-        <v>183.6174059002473</v>
+        <v>183.6174059002472</v>
       </c>
       <c r="G20" t="n">
         <v>190.6566568271311</v>
       </c>
       <c r="H20" t="n">
-        <v>109.1250875409146</v>
+        <v>109.1250875409145</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.75957391653836</v>
+        <v>27.7595739165383</v>
       </c>
       <c r="V20" t="n">
-        <v>104.8567639422258</v>
+        <v>104.8567639422257</v>
       </c>
       <c r="W20" t="n">
         <v>126.853659420261</v>
@@ -2172,10 +2172,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7441023157859</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>63.67268754708662</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6388147060659</v>
+        <v>0.9623571257722988</v>
       </c>
       <c r="V21" t="n">
-        <v>8.232273459361551</v>
+        <v>207.6490633222341</v>
       </c>
       <c r="W21" t="n">
-        <v>26.31288916970647</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>196.2129313093022</v>
       </c>
       <c r="T22" t="n">
-        <v>3.656212966667491</v>
+        <v>3.656212966667434</v>
       </c>
       <c r="U22" t="n">
-        <v>62.36304946467005</v>
+        <v>62.36304946466999</v>
       </c>
       <c r="V22" t="n">
-        <v>29.25989348664558</v>
+        <v>29.25989348664552</v>
       </c>
       <c r="W22" t="n">
-        <v>62.41611930712196</v>
+        <v>62.4161193071219</v>
       </c>
       <c r="X22" t="n">
-        <v>18.59314217063372</v>
+        <v>2.463902352015623</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160.0399524111015</v>
+        <v>160.0399524111014</v>
       </c>
       <c r="C23" t="n">
-        <v>143.3086380986491</v>
+        <v>143.308638098649</v>
       </c>
       <c r="D23" t="n">
-        <v>132.9282751743048</v>
+        <v>132.9282751743047</v>
       </c>
       <c r="E23" t="n">
-        <v>159.4415781749939</v>
+        <v>159.4415781749938</v>
       </c>
       <c r="F23" t="n">
-        <v>183.6174059002473</v>
+        <v>183.6174059002472</v>
       </c>
       <c r="G23" t="n">
         <v>190.6566568271311</v>
       </c>
       <c r="H23" t="n">
-        <v>109.1250875409146</v>
+        <v>109.1250875409145</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.75957391653836</v>
+        <v>27.75957391653827</v>
       </c>
       <c r="V23" t="n">
-        <v>104.8567639422258</v>
+        <v>104.8567639422257</v>
       </c>
       <c r="W23" t="n">
-        <v>126.853659420261</v>
+        <v>126.8536594202609</v>
       </c>
       <c r="X23" t="n">
-        <v>147.1851415508758</v>
+        <v>147.1851415508757</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.0106141709422</v>
+        <v>163.0106141709421</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>121.8527558572242</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9623571257723557</v>
+        <v>0.9623571257722704</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>207.6490633222341</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.16683638708496</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.2129313093023</v>
       </c>
       <c r="T25" t="n">
-        <v>3.656212966667491</v>
+        <v>3.656212966667406</v>
       </c>
       <c r="U25" t="n">
-        <v>62.36304946467005</v>
+        <v>62.36304946466996</v>
       </c>
       <c r="V25" t="n">
-        <v>29.25989348664558</v>
+        <v>29.2598934866455</v>
       </c>
       <c r="W25" t="n">
-        <v>62.41611930712196</v>
+        <v>62.41611930712187</v>
       </c>
       <c r="X25" t="n">
-        <v>2.46390235201568</v>
+        <v>2.463902352015594</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.0460949222169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.3707309157291</v>
+        <v>241.3707309157293</v>
       </c>
       <c r="C26" t="n">
-        <v>224.6394166032767</v>
+        <v>224.6394166032769</v>
       </c>
       <c r="D26" t="n">
-        <v>214.2590536789324</v>
+        <v>214.2590536789326</v>
       </c>
       <c r="E26" t="n">
-        <v>240.7723566796215</v>
+        <v>240.7723566796217</v>
       </c>
       <c r="F26" t="n">
-        <v>264.9481844048749</v>
+        <v>264.9481844048751</v>
       </c>
       <c r="G26" t="n">
-        <v>271.9874353317588</v>
+        <v>271.9874353317589</v>
       </c>
       <c r="H26" t="n">
-        <v>190.4558660455422</v>
+        <v>190.4558660455424</v>
       </c>
       <c r="I26" t="n">
-        <v>42.76767875350717</v>
+        <v>42.76767875350735</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.6321505672665</v>
+        <v>51.63215056726667</v>
       </c>
       <c r="T26" t="n">
-        <v>78.33591088398617</v>
+        <v>78.33591088398634</v>
       </c>
       <c r="U26" t="n">
-        <v>109.090352421166</v>
+        <v>109.0903524211661</v>
       </c>
       <c r="V26" t="n">
-        <v>186.1875424468534</v>
+        <v>186.1875424468536</v>
       </c>
       <c r="W26" t="n">
-        <v>208.1844379248886</v>
+        <v>208.1844379248888</v>
       </c>
       <c r="X26" t="n">
-        <v>228.5159200555034</v>
+        <v>228.5159200555036</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.3413926755699</v>
+        <v>244.34139267557</v>
       </c>
     </row>
     <row r="27">
@@ -2646,13 +2646,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>83.92632825717841</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.89390780467001</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>28.46404865528984</v>
+        <v>21.4316282027818</v>
       </c>
       <c r="T27" t="n">
-        <v>54.91185217371398</v>
+        <v>54.91185217371415</v>
       </c>
       <c r="U27" t="n">
         <v>224.6388147060659</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.73801241501786</v>
+        <v>37.73801241501803</v>
       </c>
       <c r="C28" t="n">
-        <v>24.99087385553639</v>
+        <v>24.99087385553656</v>
       </c>
       <c r="D28" t="n">
-        <v>6.659887438853417</v>
+        <v>6.659887438853588</v>
       </c>
       <c r="E28" t="n">
-        <v>4.628945097533233</v>
+        <v>4.628945097533403</v>
       </c>
       <c r="F28" t="n">
-        <v>3.813342334138554</v>
+        <v>3.813342334138724</v>
       </c>
       <c r="G28" t="n">
-        <v>25.30991517593121</v>
+        <v>25.30991517593138</v>
       </c>
       <c r="H28" t="n">
-        <v>17.20796751885393</v>
+        <v>17.2079675188541</v>
       </c>
       <c r="I28" t="n">
-        <v>4.376009571609711</v>
+        <v>4.376009571609882</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.52421695852599</v>
+        <v>20.52421695852616</v>
       </c>
       <c r="S28" t="n">
-        <v>75.93383880661652</v>
+        <v>75.93383880661669</v>
       </c>
       <c r="T28" t="n">
-        <v>84.98699147129513</v>
+        <v>84.9869914712953</v>
       </c>
       <c r="U28" t="n">
-        <v>143.6938279692977</v>
+        <v>143.6938279692978</v>
       </c>
       <c r="V28" t="n">
-        <v>110.5906719912732</v>
+        <v>110.5906719912734</v>
       </c>
       <c r="W28" t="n">
-        <v>143.7468978117496</v>
+        <v>143.7468978117498</v>
       </c>
       <c r="X28" t="n">
-        <v>83.79468085664331</v>
+        <v>83.79468085664348</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.40299479210228</v>
+        <v>76.40299479210245</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.3707309157291</v>
+        <v>241.3707309157292</v>
       </c>
       <c r="C29" t="n">
         <v>224.6394166032767</v>
       </c>
       <c r="D29" t="n">
-        <v>214.2590536789324</v>
+        <v>214.2590536789325</v>
       </c>
       <c r="E29" t="n">
-        <v>240.7723566796215</v>
+        <v>240.7723566796216</v>
       </c>
       <c r="F29" t="n">
-        <v>264.9481844048749</v>
+        <v>264.948184404875</v>
       </c>
       <c r="G29" t="n">
         <v>271.9874353317588</v>
       </c>
       <c r="H29" t="n">
-        <v>190.4558660455422</v>
+        <v>190.4558660455423</v>
       </c>
       <c r="I29" t="n">
-        <v>42.76767875350718</v>
+        <v>42.76767875350724</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.6321505672665</v>
+        <v>51.63215056726656</v>
       </c>
       <c r="T29" t="n">
-        <v>78.33591088398617</v>
+        <v>78.33591088398623</v>
       </c>
       <c r="U29" t="n">
         <v>109.090352421166</v>
       </c>
       <c r="V29" t="n">
-        <v>186.1875424468534</v>
+        <v>186.1875424468535</v>
       </c>
       <c r="W29" t="n">
-        <v>208.1844379248886</v>
+        <v>208.1844379248887</v>
       </c>
       <c r="X29" t="n">
-        <v>228.5159200555034</v>
+        <v>228.5159200555035</v>
       </c>
       <c r="Y29" t="n">
         <v>244.3413926755699</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>83.92632825717844</v>
       </c>
       <c r="H30" t="n">
-        <v>72.01229204916085</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.89390780467001</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.36580747901374</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.43162820278163</v>
+        <v>21.43162820278169</v>
       </c>
       <c r="T30" t="n">
-        <v>54.91185217371398</v>
+        <v>54.91185217371404</v>
       </c>
       <c r="U30" t="n">
-        <v>82.29313563039999</v>
+        <v>224.6388147060659</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.73801241501786</v>
+        <v>37.73801241501792</v>
       </c>
       <c r="C31" t="n">
-        <v>24.99087385553639</v>
+        <v>24.99087385553645</v>
       </c>
       <c r="D31" t="n">
-        <v>6.659887438853417</v>
+        <v>6.659887438853474</v>
       </c>
       <c r="E31" t="n">
-        <v>4.628945097533233</v>
+        <v>4.62894509753329</v>
       </c>
       <c r="F31" t="n">
-        <v>3.813342334138554</v>
+        <v>3.813342334138611</v>
       </c>
       <c r="G31" t="n">
-        <v>25.30991517593121</v>
+        <v>25.30991517593127</v>
       </c>
       <c r="H31" t="n">
-        <v>17.20796751885393</v>
+        <v>17.20796751885398</v>
       </c>
       <c r="I31" t="n">
-        <v>4.376009571609711</v>
+        <v>4.376009571609768</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.52421695852599</v>
+        <v>20.52421695852605</v>
       </c>
       <c r="S31" t="n">
-        <v>75.93383880661652</v>
+        <v>75.93383880661658</v>
       </c>
       <c r="T31" t="n">
-        <v>84.98699147129513</v>
+        <v>84.98699147129518</v>
       </c>
       <c r="U31" t="n">
         <v>143.6938279692977</v>
       </c>
       <c r="V31" t="n">
-        <v>110.5906719912732</v>
+        <v>110.5906719912733</v>
       </c>
       <c r="W31" t="n">
         <v>143.7468978117496</v>
       </c>
       <c r="X31" t="n">
-        <v>83.79468085664331</v>
+        <v>83.79468085664337</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.40299479210228</v>
+        <v>76.40299479210233</v>
       </c>
     </row>
     <row r="32">
@@ -3117,13 +3117,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7441023157859</v>
+        <v>88.93010617034061</v>
       </c>
       <c r="H33" t="n">
-        <v>102.0575797328957</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>17.58840329750259</v>
       </c>
       <c r="T33" t="n">
-        <v>51.06862726843494</v>
+        <v>197.2575312493799</v>
       </c>
       <c r="U33" t="n">
-        <v>78.44991072512094</v>
+        <v>224.6388147060659</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3278,7 +3278,7 @@
         <v>213.3160338376084</v>
       </c>
       <c r="G35" t="n">
-        <v>220.3552847644922</v>
+        <v>220.3552847644923</v>
       </c>
       <c r="H35" t="n">
         <v>138.8237154782757</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>26.70376031671964</v>
+        <v>26.70376031671967</v>
       </c>
       <c r="U35" t="n">
-        <v>57.45820185389945</v>
+        <v>57.45820185389948</v>
       </c>
       <c r="V35" t="n">
         <v>134.5553918795869</v>
@@ -3332,7 +3332,7 @@
         <v>176.8837694882369</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.7092421083033</v>
+        <v>192.7092421083034</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.89390780467001</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.36580747901374</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>57.78536278832475</v>
+        <v>58.25726246266796</v>
       </c>
       <c r="U36" t="n">
         <v>224.6388147060659</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.30168823934999</v>
+        <v>24.30168823935002</v>
       </c>
       <c r="T37" t="n">
-        <v>33.35484090402858</v>
+        <v>33.35484090402861</v>
       </c>
       <c r="U37" t="n">
-        <v>92.06167740203114</v>
+        <v>92.06167740203117</v>
       </c>
       <c r="V37" t="n">
-        <v>58.95852142400668</v>
+        <v>58.9585214240067</v>
       </c>
       <c r="W37" t="n">
-        <v>92.11474724448306</v>
+        <v>92.11474724448308</v>
       </c>
       <c r="X37" t="n">
-        <v>32.16253028937678</v>
+        <v>32.1625302893768</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.77084422483574</v>
+        <v>24.77084422483577</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>213.3160338376084</v>
       </c>
       <c r="G38" t="n">
-        <v>220.3552847644922</v>
+        <v>220.3552847644923</v>
       </c>
       <c r="H38" t="n">
         <v>138.8237154782757</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.70376031671964</v>
+        <v>26.70376031671967</v>
       </c>
       <c r="U38" t="n">
-        <v>57.45820185389945</v>
+        <v>57.45820185389947</v>
       </c>
       <c r="V38" t="n">
         <v>134.5553918795869</v>
@@ -3569,7 +3569,7 @@
         <v>176.8837694882369</v>
       </c>
       <c r="Y38" t="n">
-        <v>192.7092421083033</v>
+        <v>192.7092421083034</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3594,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>131.8714686608911</v>
+        <v>131.8714686608915</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>3.279701606447444</v>
+        <v>3.279701606447472</v>
       </c>
       <c r="U39" t="n">
         <v>224.6388147060659</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.30168823934999</v>
+        <v>24.30168823935002</v>
       </c>
       <c r="T40" t="n">
-        <v>33.35484090402858</v>
+        <v>33.35484090402861</v>
       </c>
       <c r="U40" t="n">
-        <v>92.06167740203114</v>
+        <v>92.06167740203117</v>
       </c>
       <c r="V40" t="n">
-        <v>58.95852142400668</v>
+        <v>58.9585214240067</v>
       </c>
       <c r="W40" t="n">
-        <v>92.11474724448306</v>
+        <v>92.11474724448308</v>
       </c>
       <c r="X40" t="n">
-        <v>32.16253028937678</v>
+        <v>32.1625302893768</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.77084422483574</v>
+        <v>24.77084422483577</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.7385803484626</v>
+        <v>189.7385803484627</v>
       </c>
       <c r="C41" t="n">
-        <v>173.0072660360102</v>
+        <v>173.0072660360103</v>
       </c>
       <c r="D41" t="n">
-        <v>162.6269031116659</v>
+        <v>162.6269031116661</v>
       </c>
       <c r="E41" t="n">
-        <v>189.140206112355</v>
+        <v>189.1402061123551</v>
       </c>
       <c r="F41" t="n">
-        <v>213.3160338376084</v>
+        <v>213.3160338376085</v>
       </c>
       <c r="G41" t="n">
-        <v>220.3552847644922</v>
+        <v>220.3552847644924</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8237154782757</v>
+        <v>138.8237154782758</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.70376031671964</v>
+        <v>26.70376031671978</v>
       </c>
       <c r="U41" t="n">
-        <v>57.45820185389945</v>
+        <v>57.4582018538996</v>
       </c>
       <c r="V41" t="n">
-        <v>134.5553918795869</v>
+        <v>134.555391879587</v>
       </c>
       <c r="W41" t="n">
-        <v>156.5522873576221</v>
+        <v>156.5522873576222</v>
       </c>
       <c r="X41" t="n">
-        <v>176.8837694882369</v>
+        <v>176.883769488237</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.7092421083033</v>
+        <v>192.7092421083035</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>54.50566118187734</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.89390780467001</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.36580747901377</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3.279701606447446</v>
+        <v>58.25726246266931</v>
       </c>
       <c r="U42" t="n">
         <v>224.6388147060659</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.30168823935</v>
+        <v>24.30168823935013</v>
       </c>
       <c r="T43" t="n">
-        <v>33.35484090402859</v>
+        <v>33.35484090402873</v>
       </c>
       <c r="U43" t="n">
-        <v>92.06167740203114</v>
+        <v>92.06167740203128</v>
       </c>
       <c r="V43" t="n">
-        <v>58.95852142400668</v>
+        <v>58.95852142400682</v>
       </c>
       <c r="W43" t="n">
-        <v>92.11474724448306</v>
+        <v>92.1147472444832</v>
       </c>
       <c r="X43" t="n">
-        <v>32.16253028937678</v>
+        <v>32.16253028937692</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.77084422483574</v>
+        <v>24.77084422483588</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>173.0072660360102</v>
       </c>
       <c r="D44" t="n">
-        <v>162.6269031116659</v>
+        <v>162.626903111666</v>
       </c>
       <c r="E44" t="n">
         <v>189.140206112355</v>
@@ -3989,7 +3989,7 @@
         <v>213.3160338376084</v>
       </c>
       <c r="G44" t="n">
-        <v>220.3552847644922</v>
+        <v>220.3552847644923</v>
       </c>
       <c r="H44" t="n">
         <v>138.8237154782757</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.70376031671964</v>
+        <v>26.70376031671969</v>
       </c>
       <c r="U44" t="n">
-        <v>57.45820185389945</v>
+        <v>57.45820185389951</v>
       </c>
       <c r="V44" t="n">
         <v>134.5553918795869</v>
       </c>
       <c r="W44" t="n">
-        <v>156.5522873576221</v>
+        <v>156.5522873576222</v>
       </c>
       <c r="X44" t="n">
-        <v>176.8837694882369</v>
+        <v>176.883769488237</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.7092421083033</v>
+        <v>192.7092421083034</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>84.70618354636156</v>
+        <v>54.97756085622195</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.89390780467001</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.36580747901377</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7773072784476</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>3.279701606447446</v>
+        <v>3.279701606447501</v>
       </c>
       <c r="U45" t="n">
         <v>224.6388147060659</v>
@@ -4119,7 +4119,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>10.48379996554578</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.30168823935</v>
+        <v>24.30168823935005</v>
       </c>
       <c r="T46" t="n">
-        <v>33.35484090402859</v>
+        <v>33.35484090402864</v>
       </c>
       <c r="U46" t="n">
-        <v>92.06167740203114</v>
+        <v>92.06167740203119</v>
       </c>
       <c r="V46" t="n">
-        <v>58.95852142400668</v>
+        <v>58.95852142400673</v>
       </c>
       <c r="W46" t="n">
-        <v>92.11474724448306</v>
+        <v>92.11474724448311</v>
       </c>
       <c r="X46" t="n">
-        <v>32.16253028937678</v>
+        <v>32.16253028937683</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.77084422483574</v>
+        <v>24.7708442248358</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="C8" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="D8" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="E8" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="F8" t="n">
-        <v>37.04670920686738</v>
+        <v>16.85913127108763</v>
       </c>
       <c r="G8" t="n">
-        <v>22.04189566764422</v>
+        <v>1.85431773186447</v>
       </c>
       <c r="H8" t="n">
-        <v>16.85913127108763</v>
+        <v>1.85431773186447</v>
       </c>
       <c r="I8" t="n">
         <v>1.85431773186447</v>
@@ -4835,19 +4835,19 @@
         <v>44.41424807610054</v>
       </c>
       <c r="U8" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="V8" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="W8" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="X8" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.4190616153237</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="C9" t="n">
-        <v>59.4190616153237</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="D9" t="n">
-        <v>46.20282184997595</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="E9" t="n">
-        <v>31.19800831075279</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="F9" t="n">
         <v>16.19319477152963</v>
       </c>
       <c r="G9" t="n">
-        <v>1.188381232306474</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="H9" t="n">
-        <v>1.188381232306474</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="I9" t="n">
         <v>1.188381232306474</v>
       </c>
       <c r="J9" t="n">
-        <v>1.188381232306474</v>
+        <v>8.581692078791374</v>
       </c>
       <c r="K9" t="n">
-        <v>15.30040836594585</v>
+        <v>23.28790982858399</v>
       </c>
       <c r="L9" t="n">
-        <v>15.30040836594585</v>
+        <v>30.00662611573847</v>
       </c>
       <c r="M9" t="n">
         <v>30.00662611573847</v>
       </c>
       <c r="N9" t="n">
-        <v>44.71284386553108</v>
+        <v>30.00662611573847</v>
       </c>
       <c r="O9" t="n">
-        <v>44.71284386553108</v>
+        <v>30.00662611573847</v>
       </c>
       <c r="P9" t="n">
         <v>44.71284386553108</v>
@@ -4905,28 +4905,28 @@
         <v>59.4190616153237</v>
       </c>
       <c r="R9" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="S9" t="n">
-        <v>59.4190616153237</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="T9" t="n">
-        <v>59.4190616153237</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="U9" t="n">
-        <v>59.4190616153237</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="V9" t="n">
-        <v>59.4190616153237</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="W9" t="n">
-        <v>59.4190616153237</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="X9" t="n">
-        <v>59.4190616153237</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.4190616153237</v>
+        <v>16.19319477152963</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="C10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="D10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="E10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="F10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="G10" t="n">
-        <v>29.40943453687738</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="H10" t="n">
-        <v>14.40462099765423</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="I10" t="n">
-        <v>1.188381232306474</v>
+        <v>31.11684095115928</v>
       </c>
       <c r="J10" t="n">
-        <v>1.188381232306474</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="K10" t="n">
         <v>1.188381232306474</v>
@@ -4981,31 +4981,31 @@
         <v>59.4190616153237</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="R10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="S10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="T10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="U10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="V10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="W10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="X10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.41424807610054</v>
+        <v>46.12165449038244</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>870.5539897619874</v>
+        <v>535.5160877232736</v>
       </c>
       <c r="C11" t="n">
-        <v>870.5539897619874</v>
+        <v>535.5160877232736</v>
       </c>
       <c r="D11" t="n">
-        <v>870.5539897619874</v>
+        <v>535.5160877232736</v>
       </c>
       <c r="E11" t="n">
-        <v>606.5878533894838</v>
+        <v>535.5160877232736</v>
       </c>
       <c r="F11" t="n">
-        <v>606.5878533894838</v>
+        <v>247.1299233454636</v>
       </c>
       <c r="G11" t="n">
-        <v>311.0913345400739</v>
+        <v>247.1299233454636</v>
       </c>
       <c r="H11" t="n">
-        <v>97.949936181792</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="I11" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J11" t="n">
-        <v>77.16757211763527</v>
+        <v>77.16757211763522</v>
       </c>
       <c r="K11" t="n">
-        <v>264.158363484506</v>
+        <v>264.1583634845059</v>
       </c>
       <c r="L11" t="n">
         <v>548.1060531550909</v>
@@ -5054,7 +5054,7 @@
         <v>1200.264992874233</v>
       </c>
       <c r="O11" t="n">
-        <v>1457.247962005105</v>
+        <v>1457.247962005104</v>
       </c>
       <c r="P11" t="n">
         <v>1639.63818747918</v>
@@ -5066,25 +5066,25 @@
         <v>1699.426249359086</v>
       </c>
       <c r="S11" t="n">
-        <v>1626.510826231386</v>
+        <v>1626.510826231385</v>
       </c>
       <c r="T11" t="n">
-        <v>1526.621907834272</v>
+        <v>1526.621907834271</v>
       </c>
       <c r="U11" t="n">
-        <v>1395.66789697536</v>
+        <v>1395.667896975359</v>
       </c>
       <c r="V11" t="n">
-        <v>1186.837936595551</v>
+        <v>1395.667896975359</v>
       </c>
       <c r="W11" t="n">
-        <v>1135.124544554802</v>
+        <v>1164.618850254101</v>
       </c>
       <c r="X11" t="n">
-        <v>1135.124544554802</v>
+        <v>913.032952895858</v>
       </c>
       <c r="Y11" t="n">
-        <v>1135.124544554802</v>
+        <v>800.0866425160877</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>424.9451849558976</v>
+        <v>533.8601941318922</v>
       </c>
       <c r="C12" t="n">
-        <v>375.213848409542</v>
+        <v>484.1288575855367</v>
       </c>
       <c r="D12" t="n">
-        <v>350.6473203003131</v>
+        <v>336.5405509444805</v>
       </c>
       <c r="E12" t="n">
-        <v>193.0377913031679</v>
+        <v>178.9310219473352</v>
       </c>
       <c r="F12" t="n">
-        <v>48.08200131978472</v>
+        <v>48.08200131978465</v>
       </c>
       <c r="G12" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="H12" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="I12" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J12" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="K12" t="n">
-        <v>33.98852498718173</v>
+        <v>217.8495893399183</v>
       </c>
       <c r="L12" t="n">
-        <v>342.0620228372661</v>
+        <v>525.9230871900027</v>
       </c>
       <c r="M12" t="n">
-        <v>754.3694580148936</v>
+        <v>577.4112074357747</v>
       </c>
       <c r="N12" t="n">
-        <v>1174.977454731267</v>
+        <v>998.0192041521485</v>
       </c>
       <c r="O12" t="n">
-        <v>1508.599872005989</v>
+        <v>1331.64162142687</v>
       </c>
       <c r="P12" t="n">
-        <v>1699.426249359086</v>
+        <v>1582.976482883011</v>
       </c>
       <c r="Q12" t="n">
         <v>1699.426249359086</v>
@@ -5148,22 +5148,22 @@
         <v>1657.01640437733</v>
       </c>
       <c r="T12" t="n">
-        <v>1471.873142168133</v>
+        <v>1580.788151344127</v>
       </c>
       <c r="U12" t="n">
-        <v>1367.987027057469</v>
+        <v>1476.902036233463</v>
       </c>
       <c r="V12" t="n">
-        <v>1133.73578358307</v>
+        <v>1365.672571290891</v>
       </c>
       <c r="W12" t="n">
-        <v>881.2212919164028</v>
+        <v>1113.158079624225</v>
       </c>
       <c r="X12" t="n">
-        <v>674.6943933219803</v>
+        <v>906.6311810298022</v>
       </c>
       <c r="Y12" t="n">
-        <v>591.9877360774581</v>
+        <v>700.9027452534526</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>267.1862717513791</v>
+        <v>255.2914762333453</v>
       </c>
       <c r="C13" t="n">
-        <v>221.1812291405777</v>
+        <v>209.2864336225439</v>
       </c>
       <c r="D13" t="n">
-        <v>193.6923344254157</v>
+        <v>181.797538907382</v>
       </c>
       <c r="E13" t="n">
-        <v>168.2548966206781</v>
+        <v>168.2548966206779</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6412999910866</v>
+        <v>143.6412999910864</v>
       </c>
       <c r="G13" t="n">
-        <v>97.31399342029044</v>
+        <v>97.31399342029033</v>
       </c>
       <c r="H13" t="n">
-        <v>59.17047236169354</v>
+        <v>59.17047236169348</v>
       </c>
       <c r="I13" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J13" t="n">
-        <v>82.98970318073822</v>
+        <v>82.98970318073839</v>
       </c>
       <c r="K13" t="n">
-        <v>215.8507506214515</v>
+        <v>215.8507506214517</v>
       </c>
       <c r="L13" t="n">
-        <v>407.9516554385208</v>
+        <v>407.951655438521</v>
       </c>
       <c r="M13" t="n">
-        <v>614.5336666685761</v>
+        <v>614.5336666685764</v>
       </c>
       <c r="N13" t="n">
-        <v>824.2118530859782</v>
+        <v>824.2118530859784</v>
       </c>
       <c r="O13" t="n">
-        <v>1011.751367528081</v>
+        <v>1011.751367528082</v>
       </c>
       <c r="P13" t="n">
-        <v>1166.403401173004</v>
+        <v>1166.403401173005</v>
       </c>
       <c r="Q13" t="n">
         <v>1227.411878288834</v>
       </c>
       <c r="R13" t="n">
-        <v>1185.918610321477</v>
+        <v>1185.918610321478</v>
       </c>
       <c r="S13" t="n">
         <v>1088.45602735605</v>
       </c>
       <c r="T13" t="n">
-        <v>981.8488457394319</v>
+        <v>981.8488457394316</v>
       </c>
       <c r="U13" t="n">
-        <v>815.9418292763464</v>
+        <v>815.9418292763462</v>
       </c>
       <c r="V13" t="n">
-        <v>683.4723441041947</v>
+        <v>683.4723441041945</v>
       </c>
       <c r="W13" t="n">
-        <v>517.5117217396427</v>
+        <v>517.5117217396424</v>
       </c>
       <c r="X13" t="n">
-        <v>424.0036897972722</v>
+        <v>412.1088942792381</v>
       </c>
       <c r="Y13" t="n">
-        <v>326.0672118970103</v>
+        <v>314.1724163789763</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>706.8686135911227</v>
+        <v>1129.507581892394</v>
       </c>
       <c r="C14" t="n">
-        <v>706.8686135911227</v>
+        <v>881.8373445869051</v>
       </c>
       <c r="D14" t="n">
-        <v>511.0960597179673</v>
+        <v>881.8373445869051</v>
       </c>
       <c r="E14" t="n">
-        <v>247.1299233454637</v>
+        <v>617.8712082144016</v>
       </c>
       <c r="F14" t="n">
-        <v>247.1299233454637</v>
+        <v>329.4850438365916</v>
       </c>
       <c r="G14" t="n">
-        <v>247.1299233454637</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="H14" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="I14" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J14" t="n">
-        <v>77.16757211763522</v>
+        <v>77.16757211763525</v>
       </c>
       <c r="K14" t="n">
-        <v>264.1583634845059</v>
+        <v>264.158363484506</v>
       </c>
       <c r="L14" t="n">
-        <v>548.1060531550906</v>
+        <v>548.1060531550908</v>
       </c>
       <c r="M14" t="n">
         <v>879.264862634173</v>
       </c>
       <c r="N14" t="n">
-        <v>1200.264992874234</v>
+        <v>1200.264992874233</v>
       </c>
       <c r="O14" t="n">
-        <v>1457.247962005105</v>
+        <v>1457.247962005104</v>
       </c>
       <c r="P14" t="n">
         <v>1639.63818747918</v>
@@ -5309,19 +5309,19 @@
         <v>1699.426249359086</v>
       </c>
       <c r="U14" t="n">
-        <v>1699.426249359086</v>
+        <v>1602.908097065016</v>
       </c>
       <c r="V14" t="n">
-        <v>1490.596288979278</v>
+        <v>1394.078136685208</v>
       </c>
       <c r="W14" t="n">
-        <v>1490.596288979278</v>
+        <v>1394.078136685208</v>
       </c>
       <c r="X14" t="n">
-        <v>1239.010391621035</v>
+        <v>1394.078136685208</v>
       </c>
       <c r="Y14" t="n">
-        <v>971.4391683839369</v>
+        <v>1394.078136685208</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>656.8819726637196</v>
+        <v>410.8384156000648</v>
       </c>
       <c r="C15" t="n">
-        <v>484.1288575855368</v>
+        <v>238.0853005218819</v>
       </c>
       <c r="D15" t="n">
-        <v>459.5623294763079</v>
+        <v>104.6037632366586</v>
       </c>
       <c r="E15" t="n">
-        <v>301.9528004791625</v>
+        <v>70.0160127713406</v>
       </c>
       <c r="F15" t="n">
-        <v>156.9970104957794</v>
+        <v>48.0820013197847</v>
       </c>
       <c r="G15" t="n">
-        <v>111.6591389312929</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6591389312929</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="I15" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J15" t="n">
-        <v>33.98852498718173</v>
+        <v>67.48771483387492</v>
       </c>
       <c r="K15" t="n">
-        <v>217.8495893399183</v>
+        <v>251.3487791866115</v>
       </c>
       <c r="L15" t="n">
-        <v>281.553538734223</v>
+        <v>559.4222770366958</v>
       </c>
       <c r="M15" t="n">
-        <v>693.8609739118504</v>
+        <v>971.7297122143232</v>
       </c>
       <c r="N15" t="n">
-        <v>1114.468970628224</v>
+        <v>998.0192041521485</v>
       </c>
       <c r="O15" t="n">
-        <v>1448.091387902945</v>
+        <v>1331.64162142687</v>
       </c>
       <c r="P15" t="n">
-        <v>1699.426249359086</v>
+        <v>1582.976482883011</v>
       </c>
       <c r="Q15" t="n">
         <v>1699.426249359086</v>
@@ -5388,19 +5388,19 @@
         <v>1580.788151344127</v>
       </c>
       <c r="U15" t="n">
-        <v>1476.902036233464</v>
+        <v>1476.902036233463</v>
       </c>
       <c r="V15" t="n">
-        <v>1365.672571290892</v>
+        <v>1242.650792759064</v>
       </c>
       <c r="W15" t="n">
-        <v>1113.158079624225</v>
+        <v>990.1363010923973</v>
       </c>
       <c r="X15" t="n">
-        <v>1029.65295956163</v>
+        <v>783.6094024979748</v>
       </c>
       <c r="Y15" t="n">
-        <v>823.92452378528</v>
+        <v>577.8809667216252</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>255.2914762333446</v>
+        <v>267.1862717513791</v>
       </c>
       <c r="C16" t="n">
-        <v>221.1812291405778</v>
+        <v>221.1812291405777</v>
       </c>
       <c r="D16" t="n">
-        <v>193.6923344254158</v>
+        <v>193.6923344254157</v>
       </c>
       <c r="E16" t="n">
-        <v>168.2548966206782</v>
+        <v>168.2548966206781</v>
       </c>
       <c r="F16" t="n">
-        <v>143.6412999910867</v>
+        <v>143.6412999910866</v>
       </c>
       <c r="G16" t="n">
-        <v>97.31399342029047</v>
+        <v>97.31399342029043</v>
       </c>
       <c r="H16" t="n">
-        <v>59.17047236169358</v>
+        <v>59.17047236169355</v>
       </c>
       <c r="I16" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J16" t="n">
-        <v>82.98970318073816</v>
+        <v>82.98970318073827</v>
       </c>
       <c r="K16" t="n">
-        <v>215.8507506214514</v>
+        <v>215.8507506214515</v>
       </c>
       <c r="L16" t="n">
-        <v>407.9516554385207</v>
+        <v>407.9516554385208</v>
       </c>
       <c r="M16" t="n">
-        <v>614.533666668576</v>
+        <v>614.5336666685761</v>
       </c>
       <c r="N16" t="n">
-        <v>824.2118530859781</v>
+        <v>824.2118530859782</v>
       </c>
       <c r="O16" t="n">
-        <v>1011.751367528081</v>
+        <v>1011.751367528082</v>
       </c>
       <c r="P16" t="n">
         <v>1166.403401173004</v>
@@ -5461,25 +5461,25 @@
         <v>1185.918610321477</v>
       </c>
       <c r="S16" t="n">
-        <v>1088.456027356049</v>
+        <v>1088.45602735605</v>
       </c>
       <c r="T16" t="n">
-        <v>981.8488457394311</v>
+        <v>981.8488457394313</v>
       </c>
       <c r="U16" t="n">
-        <v>815.9418292763457</v>
+        <v>815.9418292763456</v>
       </c>
       <c r="V16" t="n">
-        <v>683.472344104194</v>
+        <v>683.4723441041939</v>
       </c>
       <c r="W16" t="n">
         <v>517.5117217396419</v>
       </c>
       <c r="X16" t="n">
-        <v>412.1088942792376</v>
+        <v>424.0036897972721</v>
       </c>
       <c r="Y16" t="n">
-        <v>314.1724163789758</v>
+        <v>326.0672118970102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>962.3497792460108</v>
+        <v>962.3497792460109</v>
       </c>
       <c r="C17" t="n">
-        <v>817.5935791463653</v>
+        <v>817.5935791463655</v>
       </c>
       <c r="D17" t="n">
-        <v>683.322594121815</v>
+        <v>683.3225941218154</v>
       </c>
       <c r="E17" t="n">
-        <v>522.2704949551544</v>
+        <v>522.270494955155</v>
       </c>
       <c r="F17" t="n">
-        <v>336.7983677831874</v>
+        <v>336.798367783188</v>
       </c>
       <c r="G17" t="n">
-        <v>144.2158861396207</v>
+        <v>144.2158861396206</v>
       </c>
       <c r="H17" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="I17" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J17" t="n">
-        <v>77.16757211763523</v>
+        <v>77.16757211763525</v>
       </c>
       <c r="K17" t="n">
-        <v>264.1583634845059</v>
+        <v>264.158363484506</v>
       </c>
       <c r="L17" t="n">
         <v>548.1060531550906</v>
       </c>
       <c r="M17" t="n">
-        <v>879.2648626341729</v>
+        <v>879.2648626341728</v>
       </c>
       <c r="N17" t="n">
         <v>1200.264992874233</v>
@@ -5531,7 +5531,7 @@
         <v>1457.247962005104</v>
       </c>
       <c r="P17" t="n">
-        <v>1639.638187479179</v>
+        <v>1639.63818747918</v>
       </c>
       <c r="Q17" t="n">
         <v>1699.426249359086</v>
@@ -5549,7 +5549,7 @@
         <v>1671.386275706017</v>
       </c>
       <c r="V17" t="n">
-        <v>1565.470352532052</v>
+        <v>1565.470352532051</v>
       </c>
       <c r="W17" t="n">
         <v>1437.335343016637</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>339.1863606253831</v>
+        <v>406.4547350831967</v>
       </c>
       <c r="C18" t="n">
-        <v>339.1863606253831</v>
+        <v>233.7016200050139</v>
       </c>
       <c r="D18" t="n">
-        <v>191.598053984327</v>
+        <v>86.11331336395779</v>
       </c>
       <c r="E18" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="F18" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="G18" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="H18" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="I18" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J18" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="K18" t="n">
-        <v>33.98852498718173</v>
+        <v>217.8495893399183</v>
       </c>
       <c r="L18" t="n">
-        <v>342.0620228372661</v>
+        <v>525.9230871900027</v>
       </c>
       <c r="M18" t="n">
-        <v>754.3694580148933</v>
+        <v>938.23052236763</v>
       </c>
       <c r="N18" t="n">
-        <v>1174.977454731267</v>
+        <v>998.0192041521483</v>
       </c>
       <c r="O18" t="n">
-        <v>1508.599872005988</v>
+        <v>1331.641621426869</v>
       </c>
       <c r="P18" t="n">
-        <v>1699.426249359086</v>
+        <v>1582.976482883011</v>
       </c>
       <c r="Q18" t="n">
         <v>1699.426249359086</v>
@@ -5619,25 +5619,25 @@
         <v>1699.426249359086</v>
       </c>
       <c r="S18" t="n">
-        <v>1533.994625845503</v>
+        <v>1699.426249359086</v>
       </c>
       <c r="T18" t="n">
-        <v>1334.744594280473</v>
+        <v>1699.426249359086</v>
       </c>
       <c r="U18" t="n">
-        <v>1333.772516375652</v>
+        <v>1472.518355716595</v>
       </c>
       <c r="V18" t="n">
-        <v>1099.521272901253</v>
+        <v>1238.267112242196</v>
       </c>
       <c r="W18" t="n">
-        <v>847.0067812345864</v>
+        <v>985.7526205755292</v>
       </c>
       <c r="X18" t="n">
-        <v>640.4798826401639</v>
+        <v>779.2257219811067</v>
       </c>
       <c r="Y18" t="n">
-        <v>506.2289117469436</v>
+        <v>573.4972862047572</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>182.1922508935208</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="C19" t="n">
-        <v>182.1922508935208</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="D19" t="n">
-        <v>182.1922508935208</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="E19" t="n">
-        <v>182.1922508935208</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="F19" t="n">
-        <v>182.1922508935208</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="G19" t="n">
-        <v>182.1922508935208</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="H19" t="n">
-        <v>182.1922508935208</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="I19" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J19" t="n">
-        <v>33.98852498718173</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="K19" t="n">
         <v>46.27592728885109</v>
@@ -5698,25 +5698,25 @@
         <v>393.9603521451844</v>
       </c>
       <c r="S19" t="n">
-        <v>393.9603521451844</v>
+        <v>195.7654720347782</v>
       </c>
       <c r="T19" t="n">
-        <v>390.2672077344091</v>
+        <v>192.072327624003</v>
       </c>
       <c r="U19" t="n">
-        <v>327.2742284771666</v>
+        <v>129.0793483667606</v>
       </c>
       <c r="V19" t="n">
-        <v>297.7187805108579</v>
+        <v>99.52390040045196</v>
       </c>
       <c r="W19" t="n">
-        <v>184.6810411480821</v>
+        <v>36.47731524174296</v>
       </c>
       <c r="X19" t="n">
-        <v>182.1922508935208</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.1922508935208</v>
+        <v>33.98852498718172</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>683.3225941218152</v>
       </c>
       <c r="E20" t="n">
-        <v>522.2704949551548</v>
+        <v>522.2704949551547</v>
       </c>
       <c r="F20" t="n">
-        <v>336.7983677831876</v>
+        <v>336.7983677831878</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2158861396207</v>
+        <v>144.2158861396206</v>
       </c>
       <c r="H20" t="n">
         <v>33.98852498718172</v>
       </c>
       <c r="I20" t="n">
-        <v>33.98852498718172</v>
+        <v>33.98852498718194</v>
       </c>
       <c r="J20" t="n">
-        <v>77.16757211763525</v>
+        <v>77.16757211763544</v>
       </c>
       <c r="K20" t="n">
-        <v>264.158363484506</v>
+        <v>264.1583634845061</v>
       </c>
       <c r="L20" t="n">
         <v>548.1060531550909</v>
@@ -5786,7 +5786,7 @@
         <v>1671.386275706017</v>
       </c>
       <c r="V20" t="n">
-        <v>1565.470352532052</v>
+        <v>1565.470352532051</v>
       </c>
       <c r="W20" t="n">
         <v>1437.335343016637</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>858.3263665585374</v>
+        <v>656.8952656869491</v>
       </c>
       <c r="C21" t="n">
-        <v>685.5732514803547</v>
+        <v>484.1421506087663</v>
       </c>
       <c r="D21" t="n">
-        <v>537.9849448392986</v>
+        <v>336.5538439677101</v>
       </c>
       <c r="E21" t="n">
-        <v>380.3754158421533</v>
+        <v>178.9443149705648</v>
       </c>
       <c r="F21" t="n">
-        <v>235.4196258587702</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="G21" t="n">
-        <v>98.30437099433993</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="H21" t="n">
         <v>33.98852498718172</v>
@@ -5835,19 +5835,19 @@
         <v>251.3487791866115</v>
       </c>
       <c r="L21" t="n">
-        <v>251.3487791866115</v>
+        <v>559.4222770366958</v>
       </c>
       <c r="M21" t="n">
-        <v>663.6562143642388</v>
+        <v>971.7297122143232</v>
       </c>
       <c r="N21" t="n">
-        <v>1084.264211080613</v>
+        <v>1365.803832084365</v>
       </c>
       <c r="O21" t="n">
-        <v>1417.886628355333</v>
+        <v>1699.426249359086</v>
       </c>
       <c r="P21" t="n">
-        <v>1669.221489811475</v>
+        <v>1699.426249359086</v>
       </c>
       <c r="Q21" t="n">
         <v>1699.426249359086</v>
@@ -5862,19 +5862,19 @@
         <v>1699.426249359086</v>
       </c>
       <c r="U21" t="n">
-        <v>1472.518355716595</v>
+        <v>1698.454171454265</v>
       </c>
       <c r="V21" t="n">
-        <v>1464.202927979866</v>
+        <v>1488.707642845948</v>
       </c>
       <c r="W21" t="n">
-        <v>1437.62425205087</v>
+        <v>1236.193151179281</v>
       </c>
       <c r="X21" t="n">
-        <v>1231.097353456447</v>
+        <v>1029.666252584859</v>
       </c>
       <c r="Y21" t="n">
-        <v>1025.368917680098</v>
+        <v>823.9378168085095</v>
       </c>
     </row>
     <row r="22">
@@ -5935,25 +5935,25 @@
         <v>393.9603521451844</v>
       </c>
       <c r="S22" t="n">
-        <v>393.9603521451844</v>
+        <v>195.7654720347782</v>
       </c>
       <c r="T22" t="n">
-        <v>390.2672077344092</v>
+        <v>192.072327624003</v>
       </c>
       <c r="U22" t="n">
-        <v>327.2742284771667</v>
+        <v>129.0793483667606</v>
       </c>
       <c r="V22" t="n">
-        <v>297.718780510858</v>
+        <v>99.52390040045196</v>
       </c>
       <c r="W22" t="n">
-        <v>234.6721953521489</v>
+        <v>36.47731524174296</v>
       </c>
       <c r="X22" t="n">
-        <v>215.8912436646401</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.8912436646401</v>
+        <v>33.98852498718172</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>962.3497792460107</v>
+        <v>962.3497792460108</v>
       </c>
       <c r="C23" t="n">
-        <v>817.5935791463651</v>
+        <v>817.5935791463654</v>
       </c>
       <c r="D23" t="n">
-        <v>683.322594121815</v>
+        <v>683.3225941218152</v>
       </c>
       <c r="E23" t="n">
-        <v>522.2704949551542</v>
+        <v>522.2704949551547</v>
       </c>
       <c r="F23" t="n">
-        <v>336.7983677831871</v>
+        <v>336.7983677831878</v>
       </c>
       <c r="G23" t="n">
-        <v>144.2158861396207</v>
+        <v>144.2158861396206</v>
       </c>
       <c r="H23" t="n">
         <v>33.98852498718172</v>
       </c>
       <c r="I23" t="n">
-        <v>33.98852498718194</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="J23" t="n">
-        <v>77.16757211763544</v>
+        <v>77.16757211763525</v>
       </c>
       <c r="K23" t="n">
-        <v>264.1583634845061</v>
+        <v>264.158363484506</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1060531550909</v>
+        <v>548.1060531550908</v>
       </c>
       <c r="M23" t="n">
-        <v>879.2648626341731</v>
+        <v>879.264862634173</v>
       </c>
       <c r="N23" t="n">
         <v>1200.264992874233</v>
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>509.3069590458929</v>
+        <v>656.8952656869491</v>
       </c>
       <c r="C24" t="n">
-        <v>336.5538439677101</v>
+        <v>484.1421506087663</v>
       </c>
       <c r="D24" t="n">
         <v>336.5538439677101</v>
@@ -6066,16 +6066,16 @@
         <v>33.98852498718172</v>
       </c>
       <c r="J24" t="n">
-        <v>67.48771483387492</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="K24" t="n">
-        <v>251.3487791866115</v>
+        <v>217.8495893399183</v>
       </c>
       <c r="L24" t="n">
-        <v>559.4222770366958</v>
+        <v>525.9230871900027</v>
       </c>
       <c r="M24" t="n">
-        <v>971.7297122143232</v>
+        <v>938.23052236763</v>
       </c>
       <c r="N24" t="n">
         <v>998.0192041521485</v>
@@ -6093,25 +6093,25 @@
         <v>1699.426249359086</v>
       </c>
       <c r="S24" t="n">
-        <v>1576.342657584112</v>
+        <v>1699.426249359086</v>
       </c>
       <c r="T24" t="n">
-        <v>1576.342657584112</v>
+        <v>1699.426249359086</v>
       </c>
       <c r="U24" t="n">
-        <v>1575.370579679291</v>
+        <v>1698.454171454265</v>
       </c>
       <c r="V24" t="n">
-        <v>1341.119336204892</v>
+        <v>1488.707642845948</v>
       </c>
       <c r="W24" t="n">
-        <v>1088.604844538226</v>
+        <v>1236.193151179281</v>
       </c>
       <c r="X24" t="n">
-        <v>882.077945943803</v>
+        <v>1029.666252584859</v>
       </c>
       <c r="Y24" t="n">
-        <v>676.3495101674534</v>
+        <v>823.9378168085095</v>
       </c>
     </row>
     <row r="25">
@@ -6166,28 +6166,28 @@
         <v>393.9603521451844</v>
       </c>
       <c r="Q25" t="n">
-        <v>333.1857699360077</v>
+        <v>393.9603521451844</v>
       </c>
       <c r="R25" t="n">
-        <v>333.1857699360077</v>
+        <v>393.9603521451844</v>
       </c>
       <c r="S25" t="n">
-        <v>333.1857699360077</v>
+        <v>195.765472034778</v>
       </c>
       <c r="T25" t="n">
-        <v>329.4926255252324</v>
+        <v>192.0723276240029</v>
       </c>
       <c r="U25" t="n">
-        <v>266.4996462679899</v>
+        <v>129.0793483667605</v>
       </c>
       <c r="V25" t="n">
-        <v>236.9441983016813</v>
+        <v>99.52390040045191</v>
       </c>
       <c r="W25" t="n">
-        <v>173.8976131429722</v>
+        <v>36.47731524174293</v>
       </c>
       <c r="X25" t="n">
-        <v>171.4088228884109</v>
+        <v>33.98852498718172</v>
       </c>
       <c r="Y25" t="n">
         <v>33.98852498718172</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1522.143022320484</v>
+        <v>1522.143022320485</v>
       </c>
       <c r="C26" t="n">
-        <v>1295.234520701012</v>
+        <v>1295.234520701013</v>
       </c>
       <c r="D26" t="n">
-        <v>1078.811234156636</v>
+        <v>1078.811234156637</v>
       </c>
       <c r="E26" t="n">
-        <v>835.6068334701496</v>
+        <v>835.60683347015</v>
       </c>
       <c r="F26" t="n">
-        <v>567.9824047783568</v>
+        <v>567.982404778357</v>
       </c>
       <c r="G26" t="n">
-        <v>293.2476216149638</v>
+        <v>293.2476216149642</v>
       </c>
       <c r="H26" t="n">
-        <v>100.867958942699</v>
+        <v>100.8679589426991</v>
       </c>
       <c r="I26" t="n">
-        <v>57.66828343410589</v>
+        <v>57.66828343410594</v>
       </c>
       <c r="J26" t="n">
-        <v>241.7695528494687</v>
+        <v>241.7695528494686</v>
       </c>
       <c r="K26" t="n">
-        <v>569.6825665012486</v>
+        <v>569.6825665012484</v>
       </c>
       <c r="L26" t="n">
-        <v>994.5524784567426</v>
+        <v>994.5524784567422</v>
       </c>
       <c r="M26" t="n">
         <v>1466.633510220734</v>
       </c>
       <c r="N26" t="n">
-        <v>1928.555862745704</v>
+        <v>1928.555862745703</v>
       </c>
       <c r="O26" t="n">
-        <v>2326.461054161484</v>
+        <v>2326.461054161483</v>
       </c>
       <c r="P26" t="n">
-        <v>2649.773501920468</v>
+        <v>2649.773501920467</v>
       </c>
       <c r="Q26" t="n">
-        <v>2850.483786085281</v>
+        <v>2850.483786085284</v>
       </c>
       <c r="R26" t="n">
-        <v>2883.414171705294</v>
+        <v>2883.414171705297</v>
       </c>
       <c r="S26" t="n">
-        <v>2831.260484263611</v>
+        <v>2831.260484263613</v>
       </c>
       <c r="T26" t="n">
-        <v>2752.133301552514</v>
+        <v>2752.133301552516</v>
       </c>
       <c r="U26" t="n">
-        <v>2641.941026379619</v>
+        <v>2641.941026379621</v>
       </c>
       <c r="V26" t="n">
-        <v>2453.872801685828</v>
+        <v>2453.872801685829</v>
       </c>
       <c r="W26" t="n">
-        <v>2243.585490650587</v>
+        <v>2243.585490650588</v>
       </c>
       <c r="X26" t="n">
-        <v>2012.761328978361</v>
+        <v>2012.761328978363</v>
       </c>
       <c r="Y26" t="n">
-        <v>1765.951841427281</v>
+        <v>1765.951841427282</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>758.2456380779845</v>
+        <v>765.3490930805183</v>
       </c>
       <c r="C27" t="n">
-        <v>585.4925229998016</v>
+        <v>592.5959780023354</v>
       </c>
       <c r="D27" t="n">
-        <v>437.9042163587454</v>
+        <v>445.0076713612793</v>
       </c>
       <c r="E27" t="n">
-        <v>280.2946873616002</v>
+        <v>287.3981423641339</v>
       </c>
       <c r="F27" t="n">
-        <v>135.338897378217</v>
+        <v>142.4423523807508</v>
       </c>
       <c r="G27" t="n">
-        <v>135.338897378217</v>
+        <v>57.66828343410594</v>
       </c>
       <c r="H27" t="n">
-        <v>135.338897378217</v>
+        <v>57.66828343410594</v>
       </c>
       <c r="I27" t="n">
-        <v>57.66828343410589</v>
+        <v>57.66828343410594</v>
       </c>
       <c r="J27" t="n">
-        <v>91.1674732807991</v>
+        <v>91.16747328079914</v>
       </c>
       <c r="K27" t="n">
         <v>275.0285376335357</v>
@@ -6330,25 +6330,25 @@
         <v>2135.435233999332</v>
       </c>
       <c r="S27" t="n">
-        <v>2106.68366970106</v>
+        <v>2113.787124703593</v>
       </c>
       <c r="T27" t="n">
-        <v>2051.217152353874</v>
+        <v>2058.320607356407</v>
       </c>
       <c r="U27" t="n">
-        <v>1824.309258711383</v>
+        <v>1831.412713713917</v>
       </c>
       <c r="V27" t="n">
-        <v>1590.058015236984</v>
+        <v>1597.161470239517</v>
       </c>
       <c r="W27" t="n">
-        <v>1337.543523570317</v>
+        <v>1344.646978572851</v>
       </c>
       <c r="X27" t="n">
-        <v>1131.016624975895</v>
+        <v>1138.120079978428</v>
       </c>
       <c r="Y27" t="n">
-        <v>925.2881891995449</v>
+        <v>932.3916442020787</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.5338803961831</v>
+        <v>145.5338803961844</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2905734713989</v>
+        <v>120.2905734714</v>
       </c>
       <c r="D28" t="n">
-        <v>113.563414442254</v>
+        <v>113.5634144422549</v>
       </c>
       <c r="E28" t="n">
-        <v>108.8877123235336</v>
+        <v>108.8877123235343</v>
       </c>
       <c r="F28" t="n">
-        <v>105.0358513799593</v>
+        <v>105.0358513799599</v>
       </c>
       <c r="G28" t="n">
-        <v>79.47028049518028</v>
+        <v>79.47028049518067</v>
       </c>
       <c r="H28" t="n">
-        <v>62.08849512260055</v>
+        <v>62.08849512260077</v>
       </c>
       <c r="I28" t="n">
-        <v>57.66828343410589</v>
+        <v>57.66828343410594</v>
       </c>
       <c r="J28" t="n">
-        <v>127.0180387735279</v>
+        <v>57.66828343410594</v>
       </c>
       <c r="K28" t="n">
-        <v>139.3054410751972</v>
+        <v>69.9556857357753</v>
       </c>
       <c r="L28" t="n">
-        <v>351.7549230381319</v>
+        <v>141.4829454138007</v>
       </c>
       <c r="M28" t="n">
-        <v>578.6855114140526</v>
+        <v>368.4135337897212</v>
       </c>
       <c r="N28" t="n">
-        <v>667.7900526924109</v>
+        <v>466.5529046370694</v>
       </c>
       <c r="O28" t="n">
-        <v>875.6781442803796</v>
+        <v>674.440996225038</v>
       </c>
       <c r="P28" t="n">
-        <v>909.7565327862584</v>
+        <v>849.441607015826</v>
       </c>
       <c r="Q28" t="n">
-        <v>930.798661277518</v>
+        <v>930.798661277521</v>
       </c>
       <c r="R28" t="n">
-        <v>910.0671289961787</v>
+        <v>910.0671289961814</v>
       </c>
       <c r="S28" t="n">
-        <v>833.3662817167681</v>
+        <v>833.3662817167706</v>
       </c>
       <c r="T28" t="n">
-        <v>747.5208357861669</v>
+        <v>747.5208357861693</v>
       </c>
       <c r="U28" t="n">
-        <v>602.3755550090985</v>
+        <v>602.3755550091007</v>
       </c>
       <c r="V28" t="n">
-        <v>490.667805522964</v>
+        <v>490.6678055229659</v>
       </c>
       <c r="W28" t="n">
-        <v>345.468918844429</v>
+        <v>345.4689188444308</v>
       </c>
       <c r="X28" t="n">
-        <v>260.8278270700418</v>
+        <v>260.8278270700434</v>
       </c>
       <c r="Y28" t="n">
-        <v>183.6530848557971</v>
+        <v>183.6530848557986</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1522.143022320483</v>
+        <v>1522.143022320485</v>
       </c>
       <c r="C29" t="n">
-        <v>1295.234520701012</v>
+        <v>1295.234520701013</v>
       </c>
       <c r="D29" t="n">
-        <v>1078.811234156635</v>
+        <v>1078.811234156637</v>
       </c>
       <c r="E29" t="n">
-        <v>835.606833470149</v>
+        <v>835.6068334701505</v>
       </c>
       <c r="F29" t="n">
-        <v>567.9824047783561</v>
+        <v>567.9824047783576</v>
       </c>
       <c r="G29" t="n">
-        <v>293.2476216149635</v>
+        <v>293.2476216149648</v>
       </c>
       <c r="H29" t="n">
-        <v>100.867958942699</v>
+        <v>100.8679589426997</v>
       </c>
       <c r="I29" t="n">
-        <v>57.66828343410591</v>
+        <v>57.66828343410592</v>
       </c>
       <c r="J29" t="n">
         <v>241.7695528494687</v>
       </c>
       <c r="K29" t="n">
-        <v>569.6825665012486</v>
+        <v>569.6825665012484</v>
       </c>
       <c r="L29" t="n">
-        <v>994.5524784567426</v>
+        <v>994.5524784567423</v>
       </c>
       <c r="M29" t="n">
         <v>1466.633510220734</v>
       </c>
       <c r="N29" t="n">
-        <v>1928.555862745702</v>
+        <v>1928.555862745703</v>
       </c>
       <c r="O29" t="n">
-        <v>2326.461054161482</v>
+        <v>2326.461054161483</v>
       </c>
       <c r="P29" t="n">
-        <v>2649.773501920467</v>
+        <v>2649.773501920468</v>
       </c>
       <c r="Q29" t="n">
-        <v>2850.483786085282</v>
+        <v>2850.483786085284</v>
       </c>
       <c r="R29" t="n">
-        <v>2883.414171705295</v>
+        <v>2883.414171705296</v>
       </c>
       <c r="S29" t="n">
-        <v>2831.260484263612</v>
+        <v>2831.260484263613</v>
       </c>
       <c r="T29" t="n">
-        <v>2752.133301552515</v>
+        <v>2752.133301552516</v>
       </c>
       <c r="U29" t="n">
-        <v>2641.941026379619</v>
+        <v>2641.941026379621</v>
       </c>
       <c r="V29" t="n">
-        <v>2453.872801685828</v>
+        <v>2453.87280168583</v>
       </c>
       <c r="W29" t="n">
-        <v>2243.585490650587</v>
+        <v>2243.585490650589</v>
       </c>
       <c r="X29" t="n">
-        <v>2012.761328978361</v>
+        <v>2012.761328978363</v>
       </c>
       <c r="Y29" t="n">
-        <v>1765.95184142728</v>
+        <v>1765.951841427282</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>830.9853270165308</v>
+        <v>765.3490930805183</v>
       </c>
       <c r="C30" t="n">
-        <v>658.232211938348</v>
+        <v>592.5959780023354</v>
       </c>
       <c r="D30" t="n">
-        <v>510.6439052972918</v>
+        <v>445.0076713612793</v>
       </c>
       <c r="E30" t="n">
-        <v>353.0343763001465</v>
+        <v>287.3981423641339</v>
       </c>
       <c r="F30" t="n">
-        <v>208.0785863167634</v>
+        <v>142.4423523807508</v>
       </c>
       <c r="G30" t="n">
-        <v>208.0785863167634</v>
+        <v>57.66828343410592</v>
       </c>
       <c r="H30" t="n">
-        <v>135.338897378217</v>
+        <v>57.66828343410592</v>
       </c>
       <c r="I30" t="n">
-        <v>57.66828343410591</v>
+        <v>57.66828343410592</v>
       </c>
       <c r="J30" t="n">
-        <v>91.16747328079911</v>
+        <v>91.16747328079913</v>
       </c>
       <c r="K30" t="n">
         <v>275.0285376335357</v>
@@ -6564,28 +6564,28 @@
         <v>2135.435233999332</v>
       </c>
       <c r="R30" t="n">
-        <v>2057.2879537175</v>
+        <v>2135.435233999332</v>
       </c>
       <c r="S30" t="n">
-        <v>2035.639844421761</v>
+        <v>2113.787124703593</v>
       </c>
       <c r="T30" t="n">
-        <v>1980.173327074576</v>
+        <v>2058.320607356407</v>
       </c>
       <c r="U30" t="n">
-        <v>1897.048947649929</v>
+        <v>1831.412713713917</v>
       </c>
       <c r="V30" t="n">
-        <v>1662.79770417553</v>
+        <v>1597.161470239517</v>
       </c>
       <c r="W30" t="n">
-        <v>1410.283212508863</v>
+        <v>1344.646978572851</v>
       </c>
       <c r="X30" t="n">
-        <v>1203.756313914441</v>
+        <v>1138.120079978428</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.0278781380913</v>
+        <v>932.3916442020787</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.5338803961831</v>
+        <v>145.5338803961835</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2905734713989</v>
+        <v>120.2905734713993</v>
       </c>
       <c r="D31" t="n">
-        <v>113.563414442254</v>
+        <v>113.5634144422543</v>
       </c>
       <c r="E31" t="n">
-        <v>108.8877123235336</v>
+        <v>108.8877123235338</v>
       </c>
       <c r="F31" t="n">
-        <v>105.0358513799593</v>
+        <v>105.0358513799595</v>
       </c>
       <c r="G31" t="n">
-        <v>79.47028049518029</v>
+        <v>79.47028049518042</v>
       </c>
       <c r="H31" t="n">
-        <v>62.08849512260057</v>
+        <v>62.08849512260064</v>
       </c>
       <c r="I31" t="n">
-        <v>57.66828343410591</v>
+        <v>57.66828343410592</v>
       </c>
       <c r="J31" t="n">
-        <v>127.0180387735279</v>
+        <v>127.0180387735278</v>
       </c>
       <c r="K31" t="n">
-        <v>280.2276633601065</v>
+        <v>139.3054410751972</v>
       </c>
       <c r="L31" t="n">
-        <v>492.6771453230412</v>
+        <v>210.8327007532226</v>
       </c>
       <c r="M31" t="n">
-        <v>578.6855114140526</v>
+        <v>437.7632891291433</v>
       </c>
       <c r="N31" t="n">
-        <v>667.7900526924109</v>
+        <v>526.8678304075015</v>
       </c>
       <c r="O31" t="n">
-        <v>875.6781442803796</v>
+        <v>734.7559219954702</v>
       </c>
       <c r="P31" t="n">
-        <v>930.798661277518</v>
+        <v>909.7565327862583</v>
       </c>
       <c r="Q31" t="n">
-        <v>930.798661277518</v>
+        <v>930.798661277519</v>
       </c>
       <c r="R31" t="n">
-        <v>910.0671289961787</v>
+        <v>910.0671289961796</v>
       </c>
       <c r="S31" t="n">
-        <v>833.3662817167681</v>
+        <v>833.3662817167689</v>
       </c>
       <c r="T31" t="n">
-        <v>747.5208357861669</v>
+        <v>747.5208357861677</v>
       </c>
       <c r="U31" t="n">
-        <v>602.3755550090985</v>
+        <v>602.3755550090993</v>
       </c>
       <c r="V31" t="n">
-        <v>490.667805522964</v>
+        <v>490.6678055229647</v>
       </c>
       <c r="W31" t="n">
-        <v>345.468918844429</v>
+        <v>345.4689188444297</v>
       </c>
       <c r="X31" t="n">
-        <v>260.8278270700418</v>
+        <v>260.8278270700424</v>
       </c>
       <c r="Y31" t="n">
-        <v>183.6530848557971</v>
+        <v>183.6530848557976</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1493.780323576104</v>
+        <v>1493.780323576103</v>
       </c>
       <c r="C32" t="n">
-        <v>1270.7538673155</v>
+        <v>1270.753867315499</v>
       </c>
       <c r="D32" t="n">
-        <v>1058.212626129992</v>
+        <v>1058.21262612999</v>
       </c>
       <c r="E32" t="n">
-        <v>818.8902708023729</v>
+        <v>818.8902708023718</v>
       </c>
       <c r="F32" t="n">
-        <v>555.1478874694477</v>
+        <v>555.1478874694467</v>
       </c>
       <c r="G32" t="n">
-        <v>284.295149664923</v>
+        <v>284.2951496649216</v>
       </c>
       <c r="H32" t="n">
-        <v>95.79753235152481</v>
+        <v>95.79753235152484</v>
       </c>
       <c r="I32" t="n">
-        <v>56.47990220179943</v>
+        <v>56.47990220179945</v>
       </c>
       <c r="J32" t="n">
         <v>244.3859642733885</v>
@@ -6713,16 +6713,16 @@
         <v>1946.391444794529</v>
       </c>
       <c r="O32" t="n">
-        <v>2348.101428866535</v>
+        <v>2255.62761457748</v>
       </c>
       <c r="P32" t="n">
-        <v>2582.74485499269</v>
+        <v>2582.744854992691</v>
       </c>
       <c r="Q32" t="n">
-        <v>2787.259931813732</v>
+        <v>2787.259931813733</v>
       </c>
       <c r="R32" t="n">
-        <v>2823.995110089972</v>
+        <v>2823.995110089973</v>
       </c>
       <c r="S32" t="n">
         <v>2775.723468007157</v>
@@ -6731,19 +6731,19 @@
         <v>2700.478330654928</v>
       </c>
       <c r="U32" t="n">
-        <v>2594.168100840901</v>
+        <v>2594.1681008409</v>
       </c>
       <c r="V32" t="n">
-        <v>2409.981921505977</v>
+        <v>2409.981921505976</v>
       </c>
       <c r="W32" t="n">
-        <v>2203.576655829604</v>
+        <v>2203.576655829603</v>
       </c>
       <c r="X32" t="n">
-        <v>1976.634539516246</v>
+        <v>1976.634539516245</v>
       </c>
       <c r="Y32" t="n">
-        <v>1733.707097324033</v>
+        <v>1733.707097324032</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>919.5903621426593</v>
+        <v>624.2592429892348</v>
       </c>
       <c r="C33" t="n">
-        <v>746.8372470644765</v>
+        <v>451.506127911052</v>
       </c>
       <c r="D33" t="n">
-        <v>599.2489404234204</v>
+        <v>303.9178212699959</v>
       </c>
       <c r="E33" t="n">
-        <v>441.6394114262752</v>
+        <v>146.3082922728506</v>
       </c>
       <c r="F33" t="n">
-        <v>296.683621442892</v>
+        <v>146.3082922728506</v>
       </c>
       <c r="G33" t="n">
-        <v>159.5683665784618</v>
+        <v>56.47990220179945</v>
       </c>
       <c r="H33" t="n">
-        <v>56.47990220179943</v>
+        <v>56.47990220179945</v>
       </c>
       <c r="I33" t="n">
-        <v>56.47990220179943</v>
+        <v>56.47990220179945</v>
       </c>
       <c r="J33" t="n">
-        <v>89.97909204849265</v>
+        <v>89.97909204849266</v>
       </c>
       <c r="K33" t="n">
         <v>273.8401564012293</v>
@@ -6807,22 +6807,22 @@
         <v>2116.480788830154</v>
       </c>
       <c r="T33" t="n">
-        <v>2064.896316841836</v>
+        <v>1917.230757265124</v>
       </c>
       <c r="U33" t="n">
-        <v>1985.653982776058</v>
+        <v>1690.322863622633</v>
       </c>
       <c r="V33" t="n">
-        <v>1751.402739301658</v>
+        <v>1456.071620148234</v>
       </c>
       <c r="W33" t="n">
-        <v>1498.888247634992</v>
+        <v>1203.557128481567</v>
       </c>
       <c r="X33" t="n">
-        <v>1292.361349040569</v>
+        <v>997.0302298871449</v>
       </c>
       <c r="Y33" t="n">
-        <v>1086.63291326422</v>
+        <v>791.3017941107953</v>
       </c>
     </row>
     <row r="34">
@@ -6835,46 +6835,46 @@
         <v>117.201366067096</v>
       </c>
       <c r="C34" t="n">
-        <v>95.84010450117951</v>
+        <v>95.84010450117954</v>
       </c>
       <c r="D34" t="n">
-        <v>92.99499083090237</v>
+        <v>92.9949908309024</v>
       </c>
       <c r="E34" t="n">
-        <v>92.20133407104966</v>
+        <v>92.20133407104967</v>
       </c>
       <c r="F34" t="n">
-        <v>92.20133407104966</v>
+        <v>92.20133407104967</v>
       </c>
       <c r="G34" t="n">
-        <v>70.51780854513838</v>
+        <v>70.51780854513839</v>
       </c>
       <c r="H34" t="n">
-        <v>57.01806853142637</v>
+        <v>57.01806853142639</v>
       </c>
       <c r="I34" t="n">
-        <v>56.47990220179943</v>
+        <v>56.47990220179945</v>
       </c>
       <c r="J34" t="n">
-        <v>56.47990220179943</v>
+        <v>56.47990220179945</v>
       </c>
       <c r="K34" t="n">
-        <v>145.2274370620959</v>
+        <v>85.66226903888173</v>
       </c>
       <c r="L34" t="n">
-        <v>216.7546967401213</v>
+        <v>301.9165436580427</v>
       </c>
       <c r="M34" t="n">
-        <v>302.7630628311327</v>
+        <v>387.9249097490541</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8676041094909</v>
+        <v>477.0294510274123</v>
       </c>
       <c r="O34" t="n">
-        <v>603.5604883536859</v>
+        <v>688.7223352716072</v>
       </c>
       <c r="P34" t="n">
-        <v>782.3658918007002</v>
+        <v>867.5277387186215</v>
       </c>
       <c r="Q34" t="n">
         <v>867.5277387186215</v>
@@ -6914,31 +6914,31 @@
         <v>1150.238542576236</v>
       </c>
       <c r="C35" t="n">
-        <v>975.4837283984482</v>
+        <v>975.4837283984477</v>
       </c>
       <c r="D35" t="n">
-        <v>811.2141292957554</v>
+        <v>811.2141292957549</v>
       </c>
       <c r="E35" t="n">
-        <v>620.1634160509524</v>
+        <v>620.1634160509518</v>
       </c>
       <c r="F35" t="n">
-        <v>404.6926748008429</v>
+        <v>404.6926748008423</v>
       </c>
       <c r="G35" t="n">
         <v>182.1115790791332</v>
       </c>
       <c r="H35" t="n">
-        <v>41.88560384855161</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="I35" t="n">
-        <v>50.66143094417338</v>
+        <v>50.66143094417333</v>
       </c>
       <c r="J35" t="n">
-        <v>93.84047807462687</v>
+        <v>93.84047807462684</v>
       </c>
       <c r="K35" t="n">
-        <v>280.8312694414976</v>
+        <v>280.8312694414975</v>
       </c>
       <c r="L35" t="n">
         <v>564.7789591120822</v>
@@ -6950,10 +6950,10 @@
         <v>1216.937898831225</v>
       </c>
       <c r="O35" t="n">
-        <v>1473.920867962096</v>
+        <v>1576.017639045488</v>
       </c>
       <c r="P35" t="n">
-        <v>1758.407864519564</v>
+        <v>1950.445915866067</v>
       </c>
       <c r="Q35" t="n">
         <v>2010.233977745973</v>
@@ -6965,22 +6965,22 @@
         <v>2094.28019242758</v>
       </c>
       <c r="T35" t="n">
-        <v>2067.306697158167</v>
+        <v>2067.306697158166</v>
       </c>
       <c r="U35" t="n">
         <v>2009.268109426955</v>
       </c>
       <c r="V35" t="n">
-        <v>1873.353572174848</v>
+        <v>1873.353572174847</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.21994858129</v>
+        <v>1715.219948581289</v>
       </c>
       <c r="X35" t="n">
         <v>1536.549474350747</v>
       </c>
       <c r="Y35" t="n">
-        <v>1341.89367424135</v>
+        <v>1341.893674241349</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>664.792344548319</v>
+        <v>742.4629584924301</v>
       </c>
       <c r="C36" t="n">
-        <v>492.0392294701361</v>
+        <v>569.7098434142472</v>
       </c>
       <c r="D36" t="n">
-        <v>344.45092282908</v>
+        <v>422.1215367731911</v>
       </c>
       <c r="E36" t="n">
-        <v>186.8413938319347</v>
+        <v>264.5120077760458</v>
       </c>
       <c r="F36" t="n">
-        <v>41.88560384855161</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="G36" t="n">
-        <v>41.88560384855161</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="H36" t="n">
-        <v>41.88560384855161</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="I36" t="n">
-        <v>41.88560384855161</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="J36" t="n">
-        <v>50.01243170904749</v>
+        <v>75.38479369524481</v>
       </c>
       <c r="K36" t="n">
-        <v>233.8734960617841</v>
+        <v>259.2458580479814</v>
       </c>
       <c r="L36" t="n">
-        <v>541.9469939118684</v>
+        <v>567.3193558980657</v>
       </c>
       <c r="M36" t="n">
-        <v>954.2544290894957</v>
+        <v>979.6267910756931</v>
       </c>
       <c r="N36" t="n">
         <v>1392.873147220643</v>
@@ -7038,28 +7038,28 @@
         <v>2094.28019242758</v>
       </c>
       <c r="R36" t="n">
-        <v>2016.132912145748</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="S36" t="n">
-        <v>2016.132912145748</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="T36" t="n">
-        <v>1957.763858824208</v>
+        <v>2035.434472768319</v>
       </c>
       <c r="U36" t="n">
-        <v>1730.855965181717</v>
+        <v>1808.526579125829</v>
       </c>
       <c r="V36" t="n">
-        <v>1496.604721707318</v>
+        <v>1574.275335651429</v>
       </c>
       <c r="W36" t="n">
-        <v>1244.090230040651</v>
+        <v>1321.760843984763</v>
       </c>
       <c r="X36" t="n">
-        <v>1037.563331446229</v>
+        <v>1115.23394539034</v>
       </c>
       <c r="Y36" t="n">
-        <v>831.8348956698794</v>
+        <v>909.5055096139905</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.88560384855161</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="C37" t="n">
-        <v>41.88560384855161</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="D37" t="n">
-        <v>41.88560384855161</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="E37" t="n">
-        <v>41.88560384855161</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="F37" t="n">
-        <v>41.88560384855161</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="G37" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="H37" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="I37" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="J37" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="K37" t="n">
-        <v>55.53941104081626</v>
+        <v>55.53941104081649</v>
       </c>
       <c r="L37" t="n">
-        <v>127.0666707188417</v>
+        <v>127.0666707188419</v>
       </c>
       <c r="M37" t="n">
-        <v>213.0750368098531</v>
+        <v>213.0750368098533</v>
       </c>
       <c r="N37" t="n">
-        <v>302.1795780882113</v>
+        <v>302.1795780882115</v>
       </c>
       <c r="O37" t="n">
-        <v>369.1454473912707</v>
+        <v>369.145447391271</v>
       </c>
       <c r="P37" t="n">
-        <v>403.2238358971496</v>
+        <v>403.2238358971498</v>
       </c>
       <c r="Q37" t="n">
-        <v>403.2238358971496</v>
+        <v>403.2238358971498</v>
       </c>
       <c r="R37" t="n">
-        <v>403.2238358971496</v>
+        <v>403.2238358971498</v>
       </c>
       <c r="S37" t="n">
-        <v>378.6766760594223</v>
+        <v>378.6766760594225</v>
       </c>
       <c r="T37" t="n">
-        <v>344.9849175705045</v>
+        <v>344.9849175705047</v>
       </c>
       <c r="U37" t="n">
-        <v>251.9933242351196</v>
+        <v>251.9933242351197</v>
       </c>
       <c r="V37" t="n">
         <v>192.4392621906684</v>
       </c>
       <c r="W37" t="n">
-        <v>99.39406295381679</v>
+        <v>99.39406295381684</v>
       </c>
       <c r="X37" t="n">
-        <v>66.90665862111297</v>
+        <v>66.906658621113</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.88560384855161</v>
+        <v>41.8856038485516</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>1150.238542576236</v>
       </c>
       <c r="C38" t="n">
-        <v>975.4837283984484</v>
+        <v>975.4837283984479</v>
       </c>
       <c r="D38" t="n">
-        <v>811.2141292957556</v>
+        <v>811.214129295755</v>
       </c>
       <c r="E38" t="n">
-        <v>620.1634160509525</v>
+        <v>620.1634160509519</v>
       </c>
       <c r="F38" t="n">
-        <v>404.692674800843</v>
+        <v>404.6926748008424</v>
       </c>
       <c r="G38" t="n">
         <v>182.1115790791332</v>
       </c>
       <c r="H38" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855162</v>
       </c>
       <c r="I38" t="n">
-        <v>50.66143094417338</v>
+        <v>50.66143094417335</v>
       </c>
       <c r="J38" t="n">
-        <v>93.84047807462687</v>
+        <v>285.8785294211299</v>
       </c>
       <c r="K38" t="n">
-        <v>472.8693207880008</v>
+        <v>574.966091871394</v>
       </c>
       <c r="L38" t="n">
-        <v>858.9137815419783</v>
+        <v>858.9137815419788</v>
       </c>
       <c r="M38" t="n">
         <v>1190.072591021061</v>
@@ -7193,13 +7193,13 @@
         <v>1950.445915866067</v>
       </c>
       <c r="Q38" t="n">
-        <v>2010.233977745973</v>
+        <v>2010.233977745974</v>
       </c>
       <c r="R38" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="S38" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="T38" t="n">
         <v>2067.306697158167</v>
@@ -7208,10 +7208,10 @@
         <v>2009.268109426955</v>
       </c>
       <c r="V38" t="n">
-        <v>1873.353572174848</v>
+        <v>1873.353572174847</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.21994858129</v>
+        <v>1715.219948581289</v>
       </c>
       <c r="X38" t="n">
         <v>1536.549474350747</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>797.9958482461889</v>
+        <v>797.9958482461893</v>
       </c>
       <c r="C39" t="n">
-        <v>625.242733168006</v>
+        <v>625.2427331680065</v>
       </c>
       <c r="D39" t="n">
-        <v>477.6544265269499</v>
+        <v>477.6544265269503</v>
       </c>
       <c r="E39" t="n">
-        <v>320.0448975298045</v>
+        <v>320.044897529805</v>
       </c>
       <c r="F39" t="n">
-        <v>175.0891075464214</v>
+        <v>175.0891075464218</v>
       </c>
       <c r="G39" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855162</v>
       </c>
       <c r="H39" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855162</v>
       </c>
       <c r="I39" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855162</v>
       </c>
       <c r="J39" t="n">
-        <v>75.38479369524481</v>
+        <v>50.01243170904795</v>
       </c>
       <c r="K39" t="n">
-        <v>259.2458580479814</v>
+        <v>233.8734960617845</v>
       </c>
       <c r="L39" t="n">
-        <v>567.3193558980657</v>
+        <v>541.9469939118688</v>
       </c>
       <c r="M39" t="n">
-        <v>954.2544290894957</v>
+        <v>954.2544290894962</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.873147220643</v>
+        <v>1392.873147220644</v>
       </c>
       <c r="O39" t="n">
-        <v>1726.495564495364</v>
+        <v>1726.495564495365</v>
       </c>
       <c r="P39" t="n">
-        <v>1977.830425951505</v>
+        <v>1977.830425951506</v>
       </c>
       <c r="Q39" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="R39" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="S39" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="T39" t="n">
         <v>2090.967362522078</v>
       </c>
       <c r="U39" t="n">
-        <v>1864.059468879587</v>
+        <v>1864.059468879588</v>
       </c>
       <c r="V39" t="n">
-        <v>1629.808225405188</v>
+        <v>1629.808225405189</v>
       </c>
       <c r="W39" t="n">
-        <v>1377.293733738521</v>
+        <v>1377.293733738522</v>
       </c>
       <c r="X39" t="n">
         <v>1170.766835144099</v>
       </c>
       <c r="Y39" t="n">
-        <v>965.0383993677493</v>
+        <v>965.0383993677498</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="C40" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="D40" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="E40" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="F40" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="G40" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="H40" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="I40" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="J40" t="n">
-        <v>43.25200873914689</v>
+        <v>43.25200873914712</v>
       </c>
       <c r="K40" t="n">
-        <v>55.53941104081626</v>
+        <v>55.53941104081649</v>
       </c>
       <c r="L40" t="n">
-        <v>127.0666707188417</v>
+        <v>127.0666707188419</v>
       </c>
       <c r="M40" t="n">
-        <v>213.0750368098531</v>
+        <v>213.0750368098533</v>
       </c>
       <c r="N40" t="n">
-        <v>302.1795780882113</v>
+        <v>302.1795780882115</v>
       </c>
       <c r="O40" t="n">
-        <v>369.1454473912707</v>
+        <v>369.145447391271</v>
       </c>
       <c r="P40" t="n">
-        <v>403.2238358971496</v>
+        <v>403.2238358971498</v>
       </c>
       <c r="Q40" t="n">
-        <v>403.2238358971496</v>
+        <v>403.2238358971498</v>
       </c>
       <c r="R40" t="n">
-        <v>403.2238358971496</v>
+        <v>403.2238358971498</v>
       </c>
       <c r="S40" t="n">
-        <v>378.6766760594223</v>
+        <v>378.6766760594225</v>
       </c>
       <c r="T40" t="n">
-        <v>344.9849175705045</v>
+        <v>344.9849175705047</v>
       </c>
       <c r="U40" t="n">
-        <v>251.9933242351196</v>
+        <v>251.9933242351197</v>
       </c>
       <c r="V40" t="n">
         <v>192.4392621906684</v>
       </c>
       <c r="W40" t="n">
-        <v>99.39406295381679</v>
+        <v>99.39406295381684</v>
       </c>
       <c r="X40" t="n">
-        <v>66.90665862111297</v>
+        <v>66.906658621113</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855162</v>
       </c>
     </row>
     <row r="41">
@@ -7388,55 +7388,55 @@
         <v>1150.238542576236</v>
       </c>
       <c r="C41" t="n">
-        <v>975.4837283984484</v>
+        <v>975.4837283984477</v>
       </c>
       <c r="D41" t="n">
-        <v>811.2141292957556</v>
+        <v>811.2141292957549</v>
       </c>
       <c r="E41" t="n">
-        <v>620.1634160509525</v>
+        <v>620.1634160509519</v>
       </c>
       <c r="F41" t="n">
-        <v>404.692674800843</v>
+        <v>404.6926748008423</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1115790791332</v>
+        <v>182.1115790791333</v>
       </c>
       <c r="H41" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="I41" t="n">
-        <v>50.66143094417333</v>
+        <v>50.66143094417325</v>
       </c>
       <c r="J41" t="n">
-        <v>93.84047807462673</v>
+        <v>93.84047807462676</v>
       </c>
       <c r="K41" t="n">
-        <v>382.9280405248915</v>
+        <v>280.8312694414975</v>
       </c>
       <c r="L41" t="n">
-        <v>666.8757301954761</v>
+        <v>564.7789591120822</v>
       </c>
       <c r="M41" t="n">
-        <v>998.0345396745582</v>
+        <v>895.9377685911645</v>
       </c>
       <c r="N41" t="n">
         <v>1319.034669914618</v>
       </c>
       <c r="O41" t="n">
-        <v>1576.017639045489</v>
+        <v>1768.055690391993</v>
       </c>
       <c r="P41" t="n">
-        <v>1758.407864519564</v>
+        <v>1950.445915866068</v>
       </c>
       <c r="Q41" t="n">
-        <v>2010.233977745973</v>
+        <v>2010.233977745974</v>
       </c>
       <c r="R41" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="S41" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="T41" t="n">
         <v>2067.306697158167</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>719.8485679643568</v>
+        <v>742.4629584924303</v>
       </c>
       <c r="C42" t="n">
-        <v>547.0954528861739</v>
+        <v>569.7098434142474</v>
       </c>
       <c r="D42" t="n">
-        <v>399.5071462451178</v>
+        <v>422.1215367731912</v>
       </c>
       <c r="E42" t="n">
-        <v>241.8976172479725</v>
+        <v>264.5120077760459</v>
       </c>
       <c r="F42" t="n">
-        <v>96.94182726458934</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="G42" t="n">
-        <v>41.88560384855161</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="H42" t="n">
-        <v>41.88560384855161</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="I42" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="J42" t="n">
-        <v>50.01243170904803</v>
+        <v>50.0124317090484</v>
       </c>
       <c r="K42" t="n">
-        <v>233.8734960617845</v>
+        <v>233.873496061785</v>
       </c>
       <c r="L42" t="n">
-        <v>541.9469939118687</v>
+        <v>541.9469939118693</v>
       </c>
       <c r="M42" t="n">
-        <v>954.2544290894959</v>
+        <v>954.2544290894966</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.873147220643</v>
+        <v>1392.873147220644</v>
       </c>
       <c r="O42" t="n">
-        <v>1726.495564495364</v>
+        <v>1726.495564495365</v>
       </c>
       <c r="P42" t="n">
-        <v>1977.830425951505</v>
+        <v>1977.830425951506</v>
       </c>
       <c r="Q42" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="R42" t="n">
-        <v>2016.132912145748</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="S42" t="n">
-        <v>2016.132912145748</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="T42" t="n">
-        <v>2012.820082240246</v>
+        <v>2035.434472768319</v>
       </c>
       <c r="U42" t="n">
-        <v>1785.912188597755</v>
+        <v>1808.526579125829</v>
       </c>
       <c r="V42" t="n">
-        <v>1551.660945123356</v>
+        <v>1574.275335651429</v>
       </c>
       <c r="W42" t="n">
-        <v>1299.146453456689</v>
+        <v>1321.760843984763</v>
       </c>
       <c r="X42" t="n">
-        <v>1092.619554862267</v>
+        <v>1115.23394539034</v>
       </c>
       <c r="Y42" t="n">
-        <v>886.8911190859172</v>
+        <v>909.5055096139907</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="C43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="D43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="E43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="F43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="G43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="H43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="I43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="J43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="K43" t="n">
-        <v>54.17300615022092</v>
+        <v>54.173006150221</v>
       </c>
       <c r="L43" t="n">
-        <v>125.7002658282462</v>
+        <v>125.7002658282464</v>
       </c>
       <c r="M43" t="n">
-        <v>211.7086319192576</v>
+        <v>211.7086319192578</v>
       </c>
       <c r="N43" t="n">
-        <v>300.8131731976158</v>
+        <v>300.813173197616</v>
       </c>
       <c r="O43" t="n">
-        <v>367.7790425006751</v>
+        <v>367.7790425006755</v>
       </c>
       <c r="P43" t="n">
-        <v>401.8574310065539</v>
+        <v>401.8574310065543</v>
       </c>
       <c r="Q43" t="n">
-        <v>401.8574310065539</v>
+        <v>401.8574310065543</v>
       </c>
       <c r="R43" t="n">
-        <v>403.2238358971496</v>
+        <v>403.2238358971506</v>
       </c>
       <c r="S43" t="n">
-        <v>378.6766760594223</v>
+        <v>378.6766760594232</v>
       </c>
       <c r="T43" t="n">
-        <v>344.9849175705045</v>
+        <v>344.9849175705053</v>
       </c>
       <c r="U43" t="n">
-        <v>251.9933242351196</v>
+        <v>251.9933242351201</v>
       </c>
       <c r="V43" t="n">
-        <v>192.4392621906684</v>
+        <v>192.4392621906688</v>
       </c>
       <c r="W43" t="n">
-        <v>99.39406295381679</v>
+        <v>99.39406295381708</v>
       </c>
       <c r="X43" t="n">
-        <v>66.90665862111297</v>
+        <v>66.90665862111312</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.88560384855161</v>
+        <v>41.88560384855163</v>
       </c>
     </row>
     <row r="44">
@@ -7631,52 +7631,52 @@
         <v>811.2141292957554</v>
       </c>
       <c r="E44" t="n">
-        <v>620.1634160509523</v>
+        <v>620.163416050952</v>
       </c>
       <c r="F44" t="n">
-        <v>404.6926748008427</v>
+        <v>404.6926748008425</v>
       </c>
       <c r="G44" t="n">
-        <v>182.1115790791331</v>
+        <v>182.1115790791332</v>
       </c>
       <c r="H44" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="I44" t="n">
-        <v>50.66143094417332</v>
+        <v>50.66143094417333</v>
       </c>
       <c r="J44" t="n">
         <v>285.8785294211299</v>
       </c>
       <c r="K44" t="n">
-        <v>472.8693207880004</v>
+        <v>574.9660918713945</v>
       </c>
       <c r="L44" t="n">
-        <v>756.8170104585849</v>
+        <v>858.9137815419792</v>
       </c>
       <c r="M44" t="n">
-        <v>1087.975819937667</v>
+        <v>1190.072591021061</v>
       </c>
       <c r="N44" t="n">
-        <v>1408.975950177727</v>
+        <v>1511.072721261122</v>
       </c>
       <c r="O44" t="n">
-        <v>1665.958919308598</v>
+        <v>1768.055690391993</v>
       </c>
       <c r="P44" t="n">
-        <v>1848.349144782673</v>
+        <v>1950.445915866068</v>
       </c>
       <c r="Q44" t="n">
-        <v>2010.233977745973</v>
+        <v>2010.233977745974</v>
       </c>
       <c r="R44" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="S44" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="T44" t="n">
-        <v>2067.306697158166</v>
+        <v>2067.306697158167</v>
       </c>
       <c r="U44" t="n">
         <v>2009.268109426955</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>750.3541461103005</v>
+        <v>797.9958482461898</v>
       </c>
       <c r="C45" t="n">
-        <v>577.6010310321176</v>
+        <v>625.2427331680069</v>
       </c>
       <c r="D45" t="n">
-        <v>430.0127243910615</v>
+        <v>477.6544265269508</v>
       </c>
       <c r="E45" t="n">
-        <v>272.4031953939161</v>
+        <v>320.0448975298054</v>
       </c>
       <c r="F45" t="n">
-        <v>127.447405410533</v>
+        <v>175.0891075464223</v>
       </c>
       <c r="G45" t="n">
-        <v>127.447405410533</v>
+        <v>175.0891075464223</v>
       </c>
       <c r="H45" t="n">
-        <v>41.8856038485516</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="I45" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="J45" t="n">
-        <v>50.01243170904758</v>
+        <v>50.0124317090484</v>
       </c>
       <c r="K45" t="n">
-        <v>233.8734960617841</v>
+        <v>233.873496061785</v>
       </c>
       <c r="L45" t="n">
-        <v>541.9469939118683</v>
+        <v>541.9469939118693</v>
       </c>
       <c r="M45" t="n">
-        <v>954.2544290894955</v>
+        <v>954.2544290894966</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.873147220643</v>
+        <v>1392.873147220644</v>
       </c>
       <c r="O45" t="n">
-        <v>1726.495564495364</v>
+        <v>1726.495564495365</v>
       </c>
       <c r="P45" t="n">
-        <v>1977.830425951505</v>
+        <v>1977.830425951506</v>
       </c>
       <c r="Q45" t="n">
-        <v>2094.28019242758</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="R45" t="n">
-        <v>2016.132912145748</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="S45" t="n">
-        <v>1850.701288632165</v>
+        <v>2094.280192427581</v>
       </c>
       <c r="T45" t="n">
-        <v>1847.388458726662</v>
+        <v>2090.967362522079</v>
       </c>
       <c r="U45" t="n">
-        <v>1620.480565084171</v>
+        <v>1864.059468879588</v>
       </c>
       <c r="V45" t="n">
-        <v>1386.229321609772</v>
+        <v>1629.808225405189</v>
       </c>
       <c r="W45" t="n">
-        <v>1133.714829943105</v>
+        <v>1377.293733738522</v>
       </c>
       <c r="X45" t="n">
-        <v>1123.12513300821</v>
+        <v>1170.7668351441</v>
       </c>
       <c r="Y45" t="n">
-        <v>917.3966972318609</v>
+        <v>965.0383993677502</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="C46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="D46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="E46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="F46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="G46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="H46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="I46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="J46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
       <c r="K46" t="n">
-        <v>54.17300615022091</v>
+        <v>54.173006150221</v>
       </c>
       <c r="L46" t="n">
-        <v>125.7002658282462</v>
+        <v>125.7002658282464</v>
       </c>
       <c r="M46" t="n">
-        <v>211.7086319192576</v>
+        <v>211.7086319192578</v>
       </c>
       <c r="N46" t="n">
-        <v>300.8131731976158</v>
+        <v>300.813173197616</v>
       </c>
       <c r="O46" t="n">
-        <v>367.7790425006751</v>
+        <v>367.7790425006755</v>
       </c>
       <c r="P46" t="n">
-        <v>401.8574310065539</v>
+        <v>401.8574310065543</v>
       </c>
       <c r="Q46" t="n">
-        <v>401.8574310065539</v>
+        <v>401.8574310065543</v>
       </c>
       <c r="R46" t="n">
-        <v>403.2238358971496</v>
+        <v>403.22383589715</v>
       </c>
       <c r="S46" t="n">
-        <v>378.6766760594223</v>
+        <v>378.6766760594227</v>
       </c>
       <c r="T46" t="n">
-        <v>344.9849175705045</v>
+        <v>344.9849175705049</v>
       </c>
       <c r="U46" t="n">
-        <v>251.9933242351196</v>
+        <v>251.9933242351198</v>
       </c>
       <c r="V46" t="n">
-        <v>192.4392621906684</v>
+        <v>192.4392621906686</v>
       </c>
       <c r="W46" t="n">
-        <v>99.39406295381679</v>
+        <v>99.39406295381691</v>
       </c>
       <c r="X46" t="n">
-        <v>66.90665862111297</v>
+        <v>66.90665862111304</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.8856038485516</v>
+        <v>41.88560384855163</v>
       </c>
     </row>
   </sheetData>
@@ -8529,25 +8529,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>148.649975862262</v>
+        <v>149.2501684038309</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>141.8771023936142</v>
       </c>
       <c r="M9" t="n">
-        <v>153.4354484777988</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>142.9129346850809</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>145.4798126328029</v>
       </c>
       <c r="Q9" t="n">
         <v>151.3369951377019</v>
@@ -8766,16 +8766,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.29711125231485</v>
+        <v>97.29711125231486</v>
       </c>
       <c r="K12" t="n">
-        <v>89.3255996721357</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>484.3332662999999</v>
+        <v>119.8693118233784</v>
       </c>
       <c r="N12" t="n">
         <v>480.3234214235849</v>
@@ -8784,10 +8784,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>270.0815984733694</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.8543525017727</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,19 +9003,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.29711125231486</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>138.8360313824868</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>480.323421423585</v>
+        <v>82.02190144525312</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9024,7 +9024,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.8543525017727</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9243,7 +9243,7 @@
         <v>97.29711125231486</v>
       </c>
       <c r="K18" t="n">
-        <v>89.32559967213575</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,16 +9252,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>480.3234214235849</v>
+        <v>115.8594669469632</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>270.0815984733697</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.8543525017727</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9483,22 +9483,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>74.48860775187595</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>480.3234214235848</v>
+        <v>453.521525619209</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>77.32768195508888</v>
       </c>
       <c r="Q21" t="n">
-        <v>131.364210630673</v>
+        <v>100.8543525017727</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9714,7 +9714,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.29711125231486</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9726,7 +9726,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>82.02190144525312</v>
+        <v>115.8594669469634</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>105.5060282831188</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10674,7 +10674,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>472.8874208463889</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>105.5060282831192</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10908,7 +10908,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>458.7046178290935</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
         <v>498.5160693172957</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>105.5060282831194</v>
+        <v>105.5060282831197</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>105.5060282831189</v>
+        <v>105.5060282831197</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>245.1935349324337</v>
+        <v>245.1935349324336</v>
       </c>
       <c r="D11" t="n">
-        <v>234.8131720080895</v>
+        <v>234.8131720080894</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.3264750087785</v>
       </c>
       <c r="F11" t="n">
-        <v>285.5023027340319</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.5415536609157</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.32179708266412</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.7416607760103</v>
       </c>
       <c r="W11" t="n">
-        <v>177.5422981337036</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>249.0700383846604</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.8955110047269</v>
+        <v>153.078663728754</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>11.7758475628531</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.77584756285354</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>245.1935349324337</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>40.99834367366564</v>
+        <v>234.8131720080894</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.5023027340319</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.5415536609158</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>211.0099843746992</v>
       </c>
       <c r="I14" t="n">
-        <v>63.32179708266416</v>
+        <v>63.32179708266415</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.1862688964235</v>
+        <v>72.18626889642348</v>
       </c>
       <c r="T14" t="n">
-        <v>98.89002921314295</v>
+        <v>98.89002921314315</v>
       </c>
       <c r="U14" t="n">
-        <v>129.644470750323</v>
+        <v>34.09149997919422</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>228.7385562540456</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>249.0700383846604</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.8955110047268</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.77584756285435</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>11.77584756285439</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>4.867217739956686e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81215.63777557405</v>
+        <v>81215.63777557407</v>
       </c>
       <c r="C2" t="n">
-        <v>81215.63777557405</v>
+        <v>81215.63777557408</v>
       </c>
       <c r="D2" t="n">
+        <v>81391.94086149367</v>
+      </c>
+      <c r="E2" t="n">
+        <v>69765.8246440496</v>
+      </c>
+      <c r="F2" t="n">
+        <v>69765.82464404956</v>
+      </c>
+      <c r="G2" t="n">
+        <v>81391.9408614937</v>
+      </c>
+      <c r="H2" t="n">
         <v>81391.94086149368</v>
-      </c>
-      <c r="E2" t="n">
-        <v>69765.82464404959</v>
-      </c>
-      <c r="F2" t="n">
-        <v>69765.8246440496</v>
-      </c>
-      <c r="G2" t="n">
-        <v>81391.94086149368</v>
-      </c>
-      <c r="H2" t="n">
-        <v>81391.94086149373</v>
       </c>
       <c r="I2" t="n">
         <v>81391.9408614937</v>
       </c>
       <c r="J2" t="n">
-        <v>81391.94086149367</v>
+        <v>81391.9408614938</v>
       </c>
       <c r="K2" t="n">
-        <v>81391.94086149373</v>
+        <v>81391.94086149377</v>
       </c>
       <c r="L2" t="n">
-        <v>81391.9408614938</v>
+        <v>81391.94086149374</v>
       </c>
       <c r="M2" t="n">
         <v>81391.94086149358</v>
       </c>
       <c r="N2" t="n">
-        <v>81391.94086149358</v>
+        <v>81391.94086149355</v>
       </c>
       <c r="O2" t="n">
-        <v>81391.94086149352</v>
+        <v>81391.94086149355</v>
       </c>
       <c r="P2" t="n">
-        <v>81391.94086149352</v>
+        <v>81391.94086149357</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>4614.335777392</v>
       </c>
       <c r="E3" t="n">
-        <v>324100.8890198515</v>
+        <v>324100.8890198513</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81507.91746702767</v>
+        <v>81507.91746702773</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84582.49739125092</v>
+        <v>84582.49739125102</v>
       </c>
       <c r="M3" t="n">
-        <v>94943.25924792956</v>
+        <v>94943.25924792938</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32368.62579350506</v>
+        <v>32368.62579350481</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>399367.5523643354</v>
       </c>
       <c r="E4" t="n">
-        <v>250638.241234716</v>
+        <v>250638.2412347161</v>
       </c>
       <c r="F4" t="n">
         <v>250638.241234716</v>
       </c>
       <c r="G4" t="n">
-        <v>316736.4850033182</v>
+        <v>316736.4850033183</v>
       </c>
       <c r="H4" t="n">
         <v>316736.4850033183</v>
@@ -26445,16 +26445,16 @@
         <v>313100.0500774984</v>
       </c>
       <c r="L4" t="n">
-        <v>313020.4958223588</v>
+        <v>313020.4958223589</v>
       </c>
       <c r="M4" t="n">
-        <v>312448.4064913335</v>
+        <v>312448.4064913336</v>
       </c>
       <c r="N4" t="n">
         <v>312448.4064913335</v>
       </c>
       <c r="O4" t="n">
-        <v>312448.4064913336</v>
+        <v>312448.4064913335</v>
       </c>
       <c r="P4" t="n">
         <v>312448.4064913336</v>
@@ -26476,40 +26476,40 @@
         <v>34530.76973655292</v>
       </c>
       <c r="E5" t="n">
-        <v>38898.95665141822</v>
+        <v>38898.95665141821</v>
       </c>
       <c r="F5" t="n">
-        <v>38898.95665141822</v>
+        <v>38898.95665141821</v>
       </c>
       <c r="G5" t="n">
         <v>47464.31804333765</v>
       </c>
       <c r="H5" t="n">
-        <v>47464.31804333764</v>
+        <v>47464.31804333765</v>
       </c>
       <c r="I5" t="n">
-        <v>47464.31804333764</v>
+        <v>47464.31804333765</v>
       </c>
       <c r="J5" t="n">
-        <v>58623.53724489448</v>
+        <v>58623.5372448945</v>
       </c>
       <c r="K5" t="n">
-        <v>58623.53724489449</v>
+        <v>58623.5372448945</v>
       </c>
       <c r="L5" t="n">
-        <v>58043.46358290347</v>
+        <v>58043.46358290349</v>
       </c>
       <c r="M5" t="n">
-        <v>50969.36402591276</v>
+        <v>50969.36402591274</v>
       </c>
       <c r="N5" t="n">
         <v>50969.36402591276</v>
       </c>
       <c r="O5" t="n">
-        <v>50969.36402591275</v>
+        <v>50969.36402591276</v>
       </c>
       <c r="P5" t="n">
-        <v>50969.36402591274</v>
+        <v>50969.36402591276</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353202.7295609451</v>
+        <v>-353207.1371380931</v>
       </c>
       <c r="C6" t="n">
-        <v>-353202.7295609451</v>
+        <v>-353207.1371380931</v>
       </c>
       <c r="D6" t="n">
         <v>-357120.7170167866</v>
       </c>
       <c r="E6" t="n">
-        <v>-543872.2622619361</v>
+        <v>-544162.9151673721</v>
       </c>
       <c r="F6" t="n">
-        <v>-219771.3732420846</v>
+        <v>-220062.0261475207</v>
       </c>
       <c r="G6" t="n">
-        <v>-364316.7796521899</v>
+        <v>-364316.77965219</v>
       </c>
       <c r="H6" t="n">
         <v>-282808.8621851623</v>
@@ -26543,22 +26543,22 @@
         <v>-282808.8621851623</v>
       </c>
       <c r="J6" t="n">
-        <v>-400146.106242992</v>
+        <v>-400146.1062429918</v>
       </c>
       <c r="K6" t="n">
-        <v>-290331.6464608992</v>
+        <v>-290331.6464608991</v>
       </c>
       <c r="L6" t="n">
-        <v>-374254.5159350194</v>
+        <v>-374254.5159350196</v>
       </c>
       <c r="M6" t="n">
-        <v>-376969.0889036822</v>
+        <v>-376969.0889036821</v>
       </c>
       <c r="N6" t="n">
         <v>-282025.8296557527</v>
       </c>
       <c r="O6" t="n">
-        <v>-314394.4554492579</v>
+        <v>-314394.4554492575</v>
       </c>
       <c r="P6" t="n">
         <v>-282025.8296557528</v>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F2" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="G2" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="H2" t="n">
         <v>223.6764575802936</v>
       </c>
       <c r="I2" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="J2" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="K2" t="n">
         <v>142.3456790756659</v>
@@ -26716,16 +26716,16 @@
         <v>146.188903980945</v>
       </c>
       <c r="M2" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="N2" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="O2" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="P2" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.7606853560479</v>
+        <v>129.7606853560478</v>
       </c>
       <c r="F3" t="n">
         <v>129.7606853560478</v>
@@ -26774,10 +26774,10 @@
         <v>129.7606853560478</v>
       </c>
       <c r="O3" t="n">
-        <v>129.7606853560475</v>
+        <v>129.7606853560478</v>
       </c>
       <c r="P3" t="n">
-        <v>129.7606853560475</v>
+        <v>129.7606853560478</v>
       </c>
     </row>
     <row r="4">
@@ -26796,13 +26796,13 @@
         <v>14.85476540383092</v>
       </c>
       <c r="E4" t="n">
-        <v>424.8565623397716</v>
+        <v>424.8565623397715</v>
       </c>
       <c r="F4" t="n">
-        <v>424.8565623397716</v>
+        <v>424.8565623397715</v>
       </c>
       <c r="G4" t="n">
-        <v>424.8565623397716</v>
+        <v>424.8565623397715</v>
       </c>
       <c r="H4" t="n">
         <v>424.8565623397715</v>
@@ -26811,25 +26811,25 @@
         <v>424.8565623397715</v>
       </c>
       <c r="J4" t="n">
-        <v>720.8535429263236</v>
+        <v>720.8535429263242</v>
       </c>
       <c r="K4" t="n">
-        <v>720.8535429263238</v>
+        <v>720.8535429263241</v>
       </c>
       <c r="L4" t="n">
-        <v>705.9987775224929</v>
+        <v>705.9987775224931</v>
       </c>
       <c r="M4" t="n">
-        <v>523.5700481068951</v>
+        <v>523.570048106895</v>
       </c>
       <c r="N4" t="n">
-        <v>523.5700481068951</v>
+        <v>523.5700481068952</v>
       </c>
       <c r="O4" t="n">
-        <v>523.5700481068951</v>
+        <v>523.5700481068953</v>
       </c>
       <c r="P4" t="n">
-        <v>523.570048106895</v>
+        <v>523.5700481068953</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.8848968337846</v>
+        <v>101.8848968337847</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.46078224188132</v>
+        <v>40.46078224188112</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.7281217390636</v>
+        <v>105.7281217390638</v>
       </c>
       <c r="M2" t="n">
-        <v>47.78892566198752</v>
+        <v>47.78892566198746</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.46078224188132</v>
+        <v>40.46078224188101</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.7606853560479</v>
+        <v>129.7606853560478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>14.85476540383092</v>
       </c>
       <c r="E4" t="n">
-        <v>410.0017969359407</v>
+        <v>410.0017969359405</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.9969805865521</v>
+        <v>295.9969805865527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>227.5730675203429</v>
+        <v>227.5730675203424</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.8848968337846</v>
+        <v>101.8848968337847</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.46078224188132</v>
+        <v>40.46078224188112</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>14.85476540383092</v>
       </c>
       <c r="M4" t="n">
-        <v>410.0017969359407</v>
+        <v>410.0017969359405</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>333.0129666355623</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>190.3695424642931</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>236.6229981727135</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>323.4022847699283</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -27935,22 +27935,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>133.0283462069513</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>141.1786683033429</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>128.6514666797184</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>121.1684448012114</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>71.64877806164074</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>79.84021435726029</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>154.1068485018135</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>185.2984545405744</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -28023,19 +28023,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>153.0348235262771</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>146.7793066050859</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6744694297093</v>
+        <v>138.9037813935727</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>73.98407952394801</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.90593447201725</v>
+        <v>66.59626682215632</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="C11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="D11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="E11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="G11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="H11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="I11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>109.0826632978747</v>
       </c>
       <c r="S11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="T11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="U11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="V11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="W11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="X11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="D12" t="n">
-        <v>121.7915607465089</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>13.96570166227426</v>
       </c>
       <c r="G12" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="H12" t="n">
         <v>107.7669209074722</v>
       </c>
       <c r="I12" t="n">
-        <v>76.89390780466999</v>
+        <v>76.89390780467001</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.36580747901371</v>
+        <v>77.36580747901374</v>
       </c>
       <c r="S12" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="T12" t="n">
-        <v>13.9657016622742</v>
+        <v>121.791560746509</v>
       </c>
       <c r="U12" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>121.791560746509</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>121.7915607465089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="C13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="D13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="G13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="H13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="I13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="J13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="K13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="L13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="M13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="N13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="O13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="P13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Q13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="R13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="S13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="T13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="U13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="V13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="W13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="X13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="C14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="D14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="E14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="G14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="H14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="I14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>109.0826632978747</v>
       </c>
       <c r="S14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="T14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="U14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="V14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="W14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="X14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Y14" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
     </row>
     <row r="15">
@@ -28409,22 +28409,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>121.7915607465089</v>
+        <v>13.96570166227448</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>121.791560746509</v>
       </c>
       <c r="G15" t="n">
-        <v>90.85960946694425</v>
+        <v>121.791560746509</v>
       </c>
       <c r="H15" t="n">
         <v>107.7669209074722</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.89390780467001</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,22 +28454,22 @@
         <v>77.36580747901374</v>
       </c>
       <c r="S15" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="T15" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="U15" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="V15" t="n">
-        <v>121.7915607465089</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>121.7915607465089</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="C16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="D16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="G16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="H16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="I16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="J16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="K16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="L16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="M16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="N16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="O16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="P16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Q16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="R16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="S16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="T16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="U16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="V16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="W16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="X16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Y16" t="n">
-        <v>121.7915607465089</v>
+        <v>121.791560746509</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="C17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="D17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="E17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="F17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="I17" t="n">
         <v>185.1133578291731</v>
@@ -28618,19 +28618,19 @@
         <v>220.6815899596521</v>
       </c>
       <c r="U17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="V17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="W17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="X17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
     </row>
     <row r="18">
@@ -28643,13 +28643,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>104.4298932141655</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.36580747901374</v>
+        <v>77.36580747901372</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.7773072784476</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2575312493799</v>
       </c>
       <c r="U18" t="n">
-        <v>223.6764575802935</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>70.76269023429796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28740,7 +28740,7 @@
         <v>159.5536465945199</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>146.7216886472756</v>
       </c>
       <c r="J19" t="n">
         <v>72.29542115705789</v>
@@ -28770,22 +28770,22 @@
         <v>162.8698960341919</v>
       </c>
       <c r="S19" t="n">
-        <v>218.2795178822825</v>
+        <v>22.0665865729803</v>
       </c>
       <c r="T19" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="U19" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="V19" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="W19" t="n">
-        <v>174.1852149182674</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="X19" t="n">
-        <v>223.6764575802935</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7441023157859</v>
       </c>
       <c r="H21" t="n">
-        <v>44.09423336038562</v>
+        <v>107.7669209074722</v>
       </c>
       <c r="I21" t="n">
         <v>76.89390780467001</v>
@@ -28934,13 +28934,13 @@
         <v>197.2575312493799</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="V21" t="n">
-        <v>223.6764575802936</v>
+        <v>24.25966771742105</v>
       </c>
       <c r="W21" t="n">
-        <v>223.6764575802936</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -29007,7 +29007,7 @@
         <v>162.8698960341919</v>
       </c>
       <c r="S22" t="n">
-        <v>218.2795178822825</v>
+        <v>22.0665865729803</v>
       </c>
       <c r="T22" t="n">
         <v>223.6764575802936</v>
@@ -29022,7 +29022,7 @@
         <v>223.6764575802936</v>
       </c>
       <c r="X22" t="n">
-        <v>207.5472177616755</v>
+        <v>223.6764575802936</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="C23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="I23" t="n">
         <v>185.1133578291731</v>
@@ -29092,19 +29092,19 @@
         <v>220.6815899596521</v>
       </c>
       <c r="U23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="V23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="W23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="X23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29165,16 +29165,16 @@
         <v>77.36580747901374</v>
       </c>
       <c r="S24" t="n">
-        <v>41.92455142122341</v>
+        <v>163.7773072784476</v>
       </c>
       <c r="T24" t="n">
         <v>197.2575312493799</v>
       </c>
       <c r="U24" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>24.25966771742105</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>60.16683638708496</v>
       </c>
       <c r="R25" t="n">
         <v>162.8698960341919</v>
       </c>
       <c r="S25" t="n">
-        <v>218.2795178822825</v>
+        <v>22.06658657298016</v>
       </c>
       <c r="T25" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="U25" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="V25" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="W25" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="X25" t="n">
-        <v>223.6764575802936</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.70257894555129</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="C26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="D26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="E26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="F26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="G26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="H26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="I26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="J26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="K26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="L26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="M26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="N26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="O26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="P26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.3456790756633</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="R26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="S26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="T26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="U26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="V26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="W26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="X26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
     </row>
     <row r="27">
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7441023157859</v>
+        <v>51.8177740586075</v>
       </c>
       <c r="H27" t="n">
         <v>107.7669209074722</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.89390780467001</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,10 +29402,10 @@
         <v>77.36580747901374</v>
       </c>
       <c r="S27" t="n">
-        <v>135.3132586231577</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="T27" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="C28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="D28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="E28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="F28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="G28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="I28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="J28" t="n">
-        <v>142.3456790756659</v>
+        <v>72.29542115705789</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>142.3456790756659</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>9.126090473727274</v>
       </c>
       <c r="O28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.42151163078155</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="R28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="T28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="U28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="V28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="W28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="X28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.3456790756659</v>
+        <v>142.3456790756658</v>
       </c>
     </row>
     <row r="29">
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7441023157859</v>
+        <v>51.81777405860747</v>
       </c>
       <c r="H30" t="n">
-        <v>35.75462885831139</v>
+        <v>107.7669209074722</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.89390780467001</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.36580747901374</v>
       </c>
       <c r="S30" t="n">
         <v>142.3456790756659</v>
@@ -29645,7 +29645,7 @@
         <v>142.3456790756659</v>
       </c>
       <c r="U30" t="n">
-        <v>142.3456790756659</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29694,13 +29694,13 @@
         <v>142.3456790756659</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>142.3456790756659</v>
-      </c>
-      <c r="L31" t="n">
-        <v>142.3456790756659</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29709,10 +29709,10 @@
         <v>142.3456790756659</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2546752436966</v>
+        <v>142.3456790756659</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.16683638708496</v>
+        <v>81.4215116307827</v>
       </c>
       <c r="R31" t="n">
         <v>142.3456790756659</v>
@@ -29785,10 +29785,10 @@
         <v>146.188903980945</v>
       </c>
       <c r="O32" t="n">
+        <v>52.78101075967771</v>
+      </c>
+      <c r="P32" t="n">
         <v>146.188903980945</v>
-      </c>
-      <c r="P32" t="n">
-        <v>52.78101075967669</v>
       </c>
       <c r="Q32" t="n">
         <v>146.188903980945</v>
@@ -29837,13 +29837,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>46.8139961454453</v>
       </c>
       <c r="H33" t="n">
-        <v>5.709341174576537</v>
+        <v>107.7669209074722</v>
       </c>
       <c r="I33" t="n">
         <v>76.89390780467001</v>
@@ -29879,10 +29879,10 @@
         <v>146.188903980945</v>
       </c>
       <c r="T33" t="n">
-        <v>146.188903980945</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>146.188903980945</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29931,10 +29931,10 @@
         <v>72.29542115705789</v>
       </c>
       <c r="K34" t="n">
-        <v>77.23245712992633</v>
+        <v>17.06562074284132</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>146.188903980945</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>146.188903980945</v>
       </c>
       <c r="Q34" t="n">
-        <v>146.188903980945</v>
+        <v>60.16683638708496</v>
       </c>
       <c r="R34" t="n">
         <v>146.188903980945</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="C35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="D35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="E35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="F35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="G35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="H35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="I35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30022,37 +30022,37 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>103.1280515993865</v>
       </c>
       <c r="P35" t="n">
-        <v>103.1280515993869</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="Q35" t="n">
-        <v>193.9778296429325</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="S35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="T35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="V35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="W35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="X35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>107.7669209074722</v>
       </c>
       <c r="I36" t="n">
-        <v>76.89390780467001</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.36580747901374</v>
       </c>
       <c r="S36" t="n">
         <v>163.7773072784476</v>
       </c>
       <c r="T36" t="n">
-        <v>139.4721684610552</v>
+        <v>139.000268786712</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>168.7167598913998</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -30156,7 +30156,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0358012117944</v>
+        <v>167.6555942515972</v>
       </c>
       <c r="H37" t="n">
         <v>159.5536465945199</v>
@@ -30192,25 +30192,25 @@
         <v>162.8698960341919</v>
       </c>
       <c r="S37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="T37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="V37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="W37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="X37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
     </row>
     <row r="38">
@@ -30220,37 +30220,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="C38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="D38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="E38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="F38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="G38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="H38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="I38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="K38" t="n">
-        <v>193.9778296429325</v>
+        <v>103.1280515993873</v>
       </c>
       <c r="L38" t="n">
-        <v>103.1280515993867</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="S38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="T38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="V38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="W38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="X38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
     </row>
     <row r="39">
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.872633654894827</v>
+        <v>3.8726336548944</v>
       </c>
       <c r="H39" t="n">
         <v>107.7669209074722</v>
@@ -30353,7 +30353,7 @@
         <v>163.7773072784476</v>
       </c>
       <c r="T39" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.4638984508811</v>
+        <v>181.4638984508813</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30429,25 +30429,25 @@
         <v>162.8698960341919</v>
       </c>
       <c r="S40" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="T40" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U40" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="V40" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="W40" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="X40" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
     </row>
     <row r="41">
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="C41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="D41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="E41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="F41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="H41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="I41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>103.1280515993881</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,40 +30493,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>103.1280515993876</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>193.9778296429325</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="S41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="T41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="U41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="V41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="W41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="X41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
     </row>
     <row r="42">
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>81.23844113390857</v>
+        <v>135.7441023157859</v>
       </c>
       <c r="H42" t="n">
         <v>107.7669209074722</v>
       </c>
       <c r="I42" t="n">
-        <v>76.89390780467004</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.36580747901374</v>
       </c>
       <c r="S42" t="n">
         <v>163.7773072784476</v>
       </c>
       <c r="T42" t="n">
-        <v>193.9778296429325</v>
+        <v>139.0002687867106</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30636,10 +30636,10 @@
         <v>159.5536465945199</v>
       </c>
       <c r="I43" t="n">
-        <v>146.7216886472757</v>
+        <v>146.7216886472756</v>
       </c>
       <c r="J43" t="n">
-        <v>72.29542115705793</v>
+        <v>72.29542115705789</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.166836387085</v>
+        <v>60.16683638708496</v>
       </c>
       <c r="R43" t="n">
-        <v>164.2501029943897</v>
+        <v>164.2501029943902</v>
       </c>
       <c r="S43" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="T43" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="U43" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="W43" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="X43" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429323</v>
       </c>
     </row>
     <row r="44">
@@ -30694,34 +30694,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="C44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="D44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="E44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="F44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="H44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="I44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="J44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>103.1280515993878</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>103.1280515993876</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="S44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="T44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="V44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="W44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="X44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>135.7441023157859</v>
       </c>
       <c r="H45" t="n">
-        <v>23.06073736111068</v>
+        <v>52.78936005125029</v>
       </c>
       <c r="I45" t="n">
-        <v>76.89390780467004</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.36580747901374</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7773072784476</v>
       </c>
       <c r="T45" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>193.9778296429325</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30873,10 +30873,10 @@
         <v>159.5536465945199</v>
       </c>
       <c r="I46" t="n">
-        <v>146.7216886472757</v>
+        <v>146.7216886472756</v>
       </c>
       <c r="J46" t="n">
-        <v>72.29542115705793</v>
+        <v>72.29542115705789</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.166836387085</v>
+        <v>60.16683638708496</v>
       </c>
       <c r="R46" t="n">
-        <v>164.2501029943897</v>
+        <v>164.2501029943896</v>
       </c>
       <c r="S46" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="T46" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U46" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="V46" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="W46" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="X46" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5216509964062225</v>
+        <v>0.5216509964062219</v>
       </c>
       <c r="H11" t="n">
-        <v>5.342358266945227</v>
+        <v>5.342358266945222</v>
       </c>
       <c r="I11" t="n">
-        <v>20.11095003895091</v>
+        <v>20.11095003895089</v>
       </c>
       <c r="J11" t="n">
-        <v>44.27447625623266</v>
+        <v>44.27447625623262</v>
       </c>
       <c r="K11" t="n">
-        <v>66.35596293410806</v>
+        <v>66.35596293410801</v>
       </c>
       <c r="L11" t="n">
-        <v>82.32043961537502</v>
+        <v>82.32043961537495</v>
       </c>
       <c r="M11" t="n">
-        <v>91.59735052271417</v>
+        <v>91.59735052271409</v>
       </c>
       <c r="N11" t="n">
-        <v>93.07949141625336</v>
+        <v>93.07949141625328</v>
       </c>
       <c r="O11" t="n">
-        <v>87.89232432073898</v>
+        <v>87.89232432073891</v>
       </c>
       <c r="P11" t="n">
-        <v>75.01406534696035</v>
+        <v>75.01406534696028</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.33243903816249</v>
+        <v>56.33243903816244</v>
       </c>
       <c r="R11" t="n">
-        <v>32.7681594030024</v>
+        <v>32.76815940300237</v>
       </c>
       <c r="S11" t="n">
-        <v>11.88712208060681</v>
+        <v>11.8871220806068</v>
       </c>
       <c r="T11" t="n">
-        <v>2.28352723676824</v>
+        <v>2.283527236768238</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04173207971249779</v>
+        <v>0.04173207971249775</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.279107889256405</v>
+        <v>0.2791078892564047</v>
       </c>
       <c r="H12" t="n">
-        <v>2.695594614660543</v>
+        <v>2.695594614660541</v>
       </c>
       <c r="I12" t="n">
-        <v>9.609635660801665</v>
+        <v>9.609635660801656</v>
       </c>
       <c r="J12" t="n">
-        <v>26.36957474768518</v>
+        <v>26.36957474768516</v>
       </c>
       <c r="K12" t="n">
-        <v>45.06980332786431</v>
+        <v>45.06980332786427</v>
       </c>
       <c r="L12" t="n">
-        <v>60.60191253350145</v>
+        <v>60.6019125335014</v>
       </c>
       <c r="M12" t="n">
-        <v>70.71957351904611</v>
+        <v>70.71957351904605</v>
       </c>
       <c r="N12" t="n">
-        <v>72.59131019743667</v>
+        <v>72.5913101974366</v>
       </c>
       <c r="O12" t="n">
-        <v>66.40686696707105</v>
+        <v>66.406866967071</v>
       </c>
       <c r="P12" t="n">
-        <v>53.29736527388317</v>
+        <v>53.29736527388312</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.6278772320983</v>
+        <v>35.62787723209826</v>
       </c>
       <c r="R12" t="n">
-        <v>17.3291722820775</v>
+        <v>17.32917228207749</v>
       </c>
       <c r="S12" t="n">
-        <v>5.184306627196817</v>
+        <v>5.184306627196813</v>
       </c>
       <c r="T12" t="n">
-        <v>1.125000658888755</v>
+        <v>1.125000658888754</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01836236113528981</v>
+        <v>0.01836236113528979</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2339946785109061</v>
+        <v>0.2339946785109059</v>
       </c>
       <c r="H13" t="n">
-        <v>2.080425414396966</v>
+        <v>2.080425414396965</v>
       </c>
       <c r="I13" t="n">
-        <v>7.036858150127977</v>
+        <v>7.036858150127972</v>
       </c>
       <c r="J13" t="n">
-        <v>16.54342377072106</v>
+        <v>16.54342377072104</v>
       </c>
       <c r="K13" t="n">
-        <v>27.18592719426708</v>
+        <v>27.18592719426706</v>
       </c>
       <c r="L13" t="n">
-        <v>34.78862702152144</v>
+        <v>34.78862702152141</v>
       </c>
       <c r="M13" t="n">
-        <v>36.67972946875958</v>
+        <v>36.67972946875954</v>
       </c>
       <c r="N13" t="n">
-        <v>35.80756748521895</v>
+        <v>35.80756748521892</v>
       </c>
       <c r="O13" t="n">
-        <v>33.07408419534153</v>
+        <v>33.07408419534151</v>
       </c>
       <c r="P13" t="n">
-        <v>28.30059275371903</v>
+        <v>28.30059275371901</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.59386348876324</v>
+        <v>19.59386348876322</v>
       </c>
       <c r="R13" t="n">
         <v>10.52125163559037</v>
       </c>
       <c r="S13" t="n">
-        <v>4.077889079140061</v>
+        <v>4.077889079140058</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9997954445465984</v>
+        <v>0.9997954445465975</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01276334610059489</v>
+        <v>0.01276334610059488</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5216509964062219</v>
+        <v>0.5216509964062221</v>
       </c>
       <c r="H17" t="n">
-        <v>5.342358266945222</v>
+        <v>5.342358266945223</v>
       </c>
       <c r="I17" t="n">
-        <v>20.11095003895089</v>
+        <v>20.1109500389509</v>
       </c>
       <c r="J17" t="n">
-        <v>44.27447625623262</v>
+        <v>44.27447625623263</v>
       </c>
       <c r="K17" t="n">
-        <v>66.35596293410801</v>
+        <v>66.35596293410802</v>
       </c>
       <c r="L17" t="n">
-        <v>82.32043961537495</v>
+        <v>82.32043961537497</v>
       </c>
       <c r="M17" t="n">
-        <v>91.59735052271409</v>
+        <v>91.59735052271411</v>
       </c>
       <c r="N17" t="n">
-        <v>93.07949141625328</v>
+        <v>93.0794914162533</v>
       </c>
       <c r="O17" t="n">
-        <v>87.89232432073891</v>
+        <v>87.89232432073892</v>
       </c>
       <c r="P17" t="n">
-        <v>75.01406534696028</v>
+        <v>75.01406534696031</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.33243903816244</v>
+        <v>56.33243903816246</v>
       </c>
       <c r="R17" t="n">
-        <v>32.76815940300237</v>
+        <v>32.76815940300238</v>
       </c>
       <c r="S17" t="n">
         <v>11.8871220806068</v>
@@ -32266,7 +32266,7 @@
         <v>2.283527236768238</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04173207971249775</v>
+        <v>0.04173207971249776</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2791078892564047</v>
+        <v>0.2791078892564048</v>
       </c>
       <c r="H18" t="n">
         <v>2.695594614660541</v>
       </c>
       <c r="I18" t="n">
-        <v>9.609635660801656</v>
+        <v>9.609635660801658</v>
       </c>
       <c r="J18" t="n">
         <v>26.36957474768516</v>
       </c>
       <c r="K18" t="n">
-        <v>45.06980332786427</v>
+        <v>45.06980332786428</v>
       </c>
       <c r="L18" t="n">
-        <v>60.6019125335014</v>
+        <v>60.60191253350141</v>
       </c>
       <c r="M18" t="n">
-        <v>70.71957351904605</v>
+        <v>70.71957351904607</v>
       </c>
       <c r="N18" t="n">
-        <v>72.5913101974366</v>
+        <v>72.59131019743661</v>
       </c>
       <c r="O18" t="n">
-        <v>66.406866967071</v>
+        <v>66.40686696707101</v>
       </c>
       <c r="P18" t="n">
-        <v>53.29736527388312</v>
+        <v>53.29736527388313</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.62787723209826</v>
+        <v>35.62787723209827</v>
       </c>
       <c r="R18" t="n">
         <v>17.32917228207749</v>
       </c>
       <c r="S18" t="n">
-        <v>5.184306627196813</v>
+        <v>5.184306627196814</v>
       </c>
       <c r="T18" t="n">
         <v>1.125000658888754</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01836236113528979</v>
+        <v>0.0183623611352898</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,22 +32388,22 @@
         <v>2.080425414396965</v>
       </c>
       <c r="I19" t="n">
-        <v>7.036858150127972</v>
+        <v>7.036858150127973</v>
       </c>
       <c r="J19" t="n">
-        <v>16.54342377072104</v>
+        <v>16.54342377072105</v>
       </c>
       <c r="K19" t="n">
         <v>27.18592719426706</v>
       </c>
       <c r="L19" t="n">
-        <v>34.78862702152141</v>
+        <v>34.78862702152142</v>
       </c>
       <c r="M19" t="n">
-        <v>36.67972946875954</v>
+        <v>36.67972946875955</v>
       </c>
       <c r="N19" t="n">
-        <v>35.80756748521892</v>
+        <v>35.80756748521893</v>
       </c>
       <c r="O19" t="n">
         <v>33.07408419534151</v>
@@ -32418,10 +32418,10 @@
         <v>10.52125163559037</v>
       </c>
       <c r="S19" t="n">
-        <v>4.077889079140058</v>
+        <v>4.077889079140059</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9997954445465975</v>
+        <v>0.9997954445465977</v>
       </c>
       <c r="U19" t="n">
         <v>0.01276334610059488</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5216509964062208</v>
+        <v>0.5216509964062219</v>
       </c>
       <c r="H41" t="n">
-        <v>5.342358266945211</v>
+        <v>5.342358266945222</v>
       </c>
       <c r="I41" t="n">
-        <v>20.11095003895085</v>
+        <v>20.11095003895089</v>
       </c>
       <c r="J41" t="n">
-        <v>44.27447625623252</v>
+        <v>44.27447625623262</v>
       </c>
       <c r="K41" t="n">
-        <v>66.35596293410786</v>
+        <v>66.35596293410801</v>
       </c>
       <c r="L41" t="n">
-        <v>82.32043961537477</v>
+        <v>82.32043961537495</v>
       </c>
       <c r="M41" t="n">
-        <v>91.5973505227139</v>
+        <v>91.59735052271409</v>
       </c>
       <c r="N41" t="n">
-        <v>93.07949141625308</v>
+        <v>93.07949141625328</v>
       </c>
       <c r="O41" t="n">
-        <v>87.89232432073871</v>
+        <v>87.89232432073891</v>
       </c>
       <c r="P41" t="n">
-        <v>75.01406534696012</v>
+        <v>75.01406534696028</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.33243903816232</v>
+        <v>56.33243903816244</v>
       </c>
       <c r="R41" t="n">
-        <v>32.7681594030023</v>
+        <v>32.76815940300237</v>
       </c>
       <c r="S41" t="n">
-        <v>11.88712208060677</v>
+        <v>11.8871220806068</v>
       </c>
       <c r="T41" t="n">
-        <v>2.283527236768233</v>
+        <v>2.283527236768238</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04173207971249766</v>
+        <v>0.04173207971249775</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2791078892564041</v>
+        <v>0.2791078892564047</v>
       </c>
       <c r="H42" t="n">
-        <v>2.695594614660535</v>
+        <v>2.695594614660541</v>
       </c>
       <c r="I42" t="n">
-        <v>9.609635660801635</v>
+        <v>9.609635660801656</v>
       </c>
       <c r="J42" t="n">
-        <v>26.3695747476851</v>
+        <v>26.36957474768516</v>
       </c>
       <c r="K42" t="n">
-        <v>45.06980332786417</v>
+        <v>45.06980332786427</v>
       </c>
       <c r="L42" t="n">
-        <v>60.60191253350126</v>
+        <v>60.6019125335014</v>
       </c>
       <c r="M42" t="n">
-        <v>70.71957351904589</v>
+        <v>70.71957351904605</v>
       </c>
       <c r="N42" t="n">
-        <v>72.59131019743644</v>
+        <v>72.5913101974366</v>
       </c>
       <c r="O42" t="n">
-        <v>66.40686696707085</v>
+        <v>66.406866967071</v>
       </c>
       <c r="P42" t="n">
-        <v>53.297365273883</v>
+        <v>53.29736527388312</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.62787723209819</v>
+        <v>35.62787723209826</v>
       </c>
       <c r="R42" t="n">
-        <v>17.32917228207745</v>
+        <v>17.32917228207749</v>
       </c>
       <c r="S42" t="n">
-        <v>5.184306627196801</v>
+        <v>5.184306627196813</v>
       </c>
       <c r="T42" t="n">
-        <v>1.125000658888751</v>
+        <v>1.125000658888754</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01836236113528975</v>
+        <v>0.01836236113528979</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2339946785109054</v>
+        <v>0.2339946785109059</v>
       </c>
       <c r="H43" t="n">
-        <v>2.08042541439696</v>
+        <v>2.080425414396965</v>
       </c>
       <c r="I43" t="n">
-        <v>7.036858150127956</v>
+        <v>7.036858150127972</v>
       </c>
       <c r="J43" t="n">
-        <v>16.54342377072101</v>
+        <v>16.54342377072104</v>
       </c>
       <c r="K43" t="n">
-        <v>27.185927194267</v>
+        <v>27.18592719426706</v>
       </c>
       <c r="L43" t="n">
-        <v>34.78862702152134</v>
+        <v>34.78862702152141</v>
       </c>
       <c r="M43" t="n">
-        <v>36.67972946875946</v>
+        <v>36.67972946875954</v>
       </c>
       <c r="N43" t="n">
-        <v>35.80756748521884</v>
+        <v>35.80756748521892</v>
       </c>
       <c r="O43" t="n">
-        <v>33.07408419534143</v>
+        <v>33.07408419534151</v>
       </c>
       <c r="P43" t="n">
-        <v>28.30059275371894</v>
+        <v>28.30059275371901</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.59386348876318</v>
+        <v>19.59386348876322</v>
       </c>
       <c r="R43" t="n">
-        <v>10.52125163559034</v>
+        <v>10.52125163559037</v>
       </c>
       <c r="S43" t="n">
-        <v>4.077889079140049</v>
+        <v>4.077889079140058</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9997954445465954</v>
+        <v>0.9997954445465975</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01276334610059485</v>
+        <v>0.01276334610059488</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5216509964062208</v>
+        <v>0.5216509964062219</v>
       </c>
       <c r="H44" t="n">
-        <v>5.342358266945211</v>
+        <v>5.342358266945222</v>
       </c>
       <c r="I44" t="n">
-        <v>20.11095003895085</v>
+        <v>20.11095003895089</v>
       </c>
       <c r="J44" t="n">
-        <v>44.27447625623252</v>
+        <v>44.27447625623262</v>
       </c>
       <c r="K44" t="n">
-        <v>66.35596293410786</v>
+        <v>66.35596293410801</v>
       </c>
       <c r="L44" t="n">
-        <v>82.32043961537477</v>
+        <v>82.32043961537495</v>
       </c>
       <c r="M44" t="n">
-        <v>91.5973505227139</v>
+        <v>91.59735052271409</v>
       </c>
       <c r="N44" t="n">
-        <v>93.07949141625308</v>
+        <v>93.07949141625328</v>
       </c>
       <c r="O44" t="n">
-        <v>87.89232432073871</v>
+        <v>87.89232432073891</v>
       </c>
       <c r="P44" t="n">
-        <v>75.01406534696012</v>
+        <v>75.01406534696028</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.33243903816232</v>
+        <v>56.33243903816244</v>
       </c>
       <c r="R44" t="n">
-        <v>32.7681594030023</v>
+        <v>32.76815940300237</v>
       </c>
       <c r="S44" t="n">
-        <v>11.88712208060677</v>
+        <v>11.8871220806068</v>
       </c>
       <c r="T44" t="n">
-        <v>2.283527236768233</v>
+        <v>2.283527236768238</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04173207971249766</v>
+        <v>0.04173207971249775</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2791078892564041</v>
+        <v>0.2791078892564047</v>
       </c>
       <c r="H45" t="n">
-        <v>2.695594614660535</v>
+        <v>2.695594614660541</v>
       </c>
       <c r="I45" t="n">
-        <v>9.609635660801635</v>
+        <v>9.609635660801656</v>
       </c>
       <c r="J45" t="n">
-        <v>26.3695747476851</v>
+        <v>26.36957474768516</v>
       </c>
       <c r="K45" t="n">
-        <v>45.06980332786417</v>
+        <v>45.06980332786427</v>
       </c>
       <c r="L45" t="n">
-        <v>60.60191253350126</v>
+        <v>60.6019125335014</v>
       </c>
       <c r="M45" t="n">
-        <v>70.71957351904589</v>
+        <v>70.71957351904605</v>
       </c>
       <c r="N45" t="n">
-        <v>72.59131019743644</v>
+        <v>72.5913101974366</v>
       </c>
       <c r="O45" t="n">
-        <v>66.40686696707085</v>
+        <v>66.406866967071</v>
       </c>
       <c r="P45" t="n">
-        <v>53.297365273883</v>
+        <v>53.29736527388312</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.62787723209819</v>
+        <v>35.62787723209826</v>
       </c>
       <c r="R45" t="n">
-        <v>17.32917228207745</v>
+        <v>17.32917228207749</v>
       </c>
       <c r="S45" t="n">
-        <v>5.184306627196801</v>
+        <v>5.184306627196813</v>
       </c>
       <c r="T45" t="n">
-        <v>1.125000658888751</v>
+        <v>1.125000658888754</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01836236113528975</v>
+        <v>0.01836236113528979</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2339946785109054</v>
+        <v>0.2339946785109059</v>
       </c>
       <c r="H46" t="n">
-        <v>2.08042541439696</v>
+        <v>2.080425414396965</v>
       </c>
       <c r="I46" t="n">
-        <v>7.036858150127956</v>
+        <v>7.036858150127972</v>
       </c>
       <c r="J46" t="n">
-        <v>16.54342377072101</v>
+        <v>16.54342377072104</v>
       </c>
       <c r="K46" t="n">
-        <v>27.185927194267</v>
+        <v>27.18592719426706</v>
       </c>
       <c r="L46" t="n">
-        <v>34.78862702152134</v>
+        <v>34.78862702152141</v>
       </c>
       <c r="M46" t="n">
-        <v>36.67972946875946</v>
+        <v>36.67972946875954</v>
       </c>
       <c r="N46" t="n">
-        <v>35.80756748521884</v>
+        <v>35.80756748521892</v>
       </c>
       <c r="O46" t="n">
-        <v>33.07408419534143</v>
+        <v>33.07408419534151</v>
       </c>
       <c r="P46" t="n">
-        <v>28.30059275371894</v>
+        <v>28.30059275371901</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.59386348876318</v>
+        <v>19.59386348876322</v>
       </c>
       <c r="R46" t="n">
-        <v>10.52125163559034</v>
+        <v>10.52125163559037</v>
       </c>
       <c r="S46" t="n">
-        <v>4.077889079140049</v>
+        <v>4.077889079140058</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9997954445465954</v>
+        <v>0.9997954445465975</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01276334610059485</v>
+        <v>0.01276334610059488</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>14.254572862262</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.786582108236847</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="N9" t="n">
-        <v>14.85476540383092</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>14.85476540383092</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.61519912167024</v>
+        <v>43.61519912167021</v>
       </c>
       <c r="K11" t="n">
-        <v>188.8795872392634</v>
+        <v>188.8795872392633</v>
       </c>
       <c r="L11" t="n">
-        <v>286.8158481521059</v>
+        <v>286.8158481521058</v>
       </c>
       <c r="M11" t="n">
-        <v>334.5038479586691</v>
+        <v>334.503847958669</v>
       </c>
       <c r="N11" t="n">
-        <v>324.2425557980407</v>
+        <v>324.2425557980406</v>
       </c>
       <c r="O11" t="n">
-        <v>259.5787566978496</v>
+        <v>259.5787566978495</v>
       </c>
       <c r="P11" t="n">
-        <v>184.2325509839145</v>
+        <v>184.2325509839144</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.39198169687511</v>
+        <v>60.39198169687506</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>185.718246820946</v>
       </c>
       <c r="L12" t="n">
         <v>311.1853513637216</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4721567450782</v>
+        <v>52.00820226845662</v>
       </c>
       <c r="N12" t="n">
-        <v>424.8565623397716</v>
+        <v>424.8565623397715</v>
       </c>
       <c r="O12" t="n">
-        <v>336.9923406815364</v>
+        <v>336.9923406815363</v>
       </c>
       <c r="P12" t="n">
-        <v>192.7539165182806</v>
+        <v>253.8735974304458</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.6260267435104</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.49613958945108</v>
+        <v>49.49613958945112</v>
       </c>
       <c r="K13" t="n">
         <v>134.2030782229427</v>
@@ -35580,13 +35580,13 @@
         <v>211.7961478963658</v>
       </c>
       <c r="O13" t="n">
-        <v>189.4338529718215</v>
+        <v>189.4338529718216</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2141753989118</v>
+        <v>156.2141753989119</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.62472435942401</v>
+        <v>61.62472435942405</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.83756550171031</v>
       </c>
       <c r="K15" t="n">
         <v>185.718246820946</v>
       </c>
       <c r="L15" t="n">
-        <v>64.34742363061082</v>
+        <v>311.1853513637216</v>
       </c>
       <c r="M15" t="n">
         <v>416.4721567450781</v>
       </c>
       <c r="N15" t="n">
-        <v>424.8565623397716</v>
+        <v>26.55504236143974</v>
       </c>
       <c r="O15" t="n">
         <v>336.9923406815363</v>
@@ -35744,7 +35744,7 @@
         <v>253.8735974304458</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>117.6260267435104</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.49613958945106</v>
+        <v>49.49613958945108</v>
       </c>
       <c r="K16" t="n">
         <v>134.2030782229427</v>
       </c>
       <c r="L16" t="n">
-        <v>194.0413179970396</v>
+        <v>194.0413179970397</v>
       </c>
       <c r="M16" t="n">
-        <v>208.668698212177</v>
+        <v>208.6686982121771</v>
       </c>
       <c r="N16" t="n">
         <v>211.7961478963658</v>
@@ -35823,7 +35823,7 @@
         <v>156.2141753989118</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.62472435942399</v>
+        <v>61.62472435942401</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.61519912167021</v>
+        <v>43.61519912167022</v>
       </c>
       <c r="K17" t="n">
         <v>188.8795872392633</v>
@@ -35893,16 +35893,16 @@
         <v>334.503847958669</v>
       </c>
       <c r="N17" t="n">
-        <v>324.2425557980406</v>
+        <v>324.2425557980407</v>
       </c>
       <c r="O17" t="n">
         <v>259.5787566978495</v>
       </c>
       <c r="P17" t="n">
-        <v>184.2325509839144</v>
+        <v>184.2325509839145</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.39198169687506</v>
+        <v>60.39198169687507</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>185.718246820946</v>
       </c>
       <c r="L18" t="n">
         <v>311.1853513637216</v>
@@ -35972,16 +35972,16 @@
         <v>416.4721567450781</v>
       </c>
       <c r="N18" t="n">
-        <v>424.8565623397716</v>
+        <v>60.3926078631498</v>
       </c>
       <c r="O18" t="n">
         <v>336.9923406815363</v>
       </c>
       <c r="P18" t="n">
-        <v>192.7539165182808</v>
+        <v>253.8735974304458</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.6260267435104</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,13 +36051,13 @@
         <v>86.87713746566811</v>
       </c>
       <c r="N19" t="n">
-        <v>90.0045871498568</v>
+        <v>90.00458714985682</v>
       </c>
       <c r="O19" t="n">
-        <v>67.64229222531256</v>
+        <v>67.64229222531257</v>
       </c>
       <c r="P19" t="n">
-        <v>34.42261465240284</v>
+        <v>34.42261465240285</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>185.718246820946</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>311.1853513637216</v>
       </c>
       <c r="M21" t="n">
         <v>416.4721567450781</v>
       </c>
       <c r="N21" t="n">
-        <v>424.8565623397715</v>
+        <v>398.0546665353956</v>
       </c>
       <c r="O21" t="n">
         <v>336.9923406815363</v>
       </c>
       <c r="P21" t="n">
-        <v>253.8735974304458</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.50985812890028</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.83756550171031</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>185.718246820946</v>
@@ -36446,7 +36446,7 @@
         <v>416.4721567450781</v>
       </c>
       <c r="N24" t="n">
-        <v>26.55504236143974</v>
+        <v>60.39260786315003</v>
       </c>
       <c r="O24" t="n">
         <v>336.9923406815363</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>185.9608781973361</v>
+        <v>185.960878197336</v>
       </c>
       <c r="K26" t="n">
-        <v>331.2252663149293</v>
+        <v>331.2252663149291</v>
       </c>
       <c r="L26" t="n">
-        <v>429.1615272277717</v>
+        <v>429.1615272277716</v>
       </c>
       <c r="M26" t="n">
-        <v>476.849527034335</v>
+        <v>476.8495270343348</v>
       </c>
       <c r="N26" t="n">
-        <v>466.5882348737066</v>
+        <v>466.5882348737064</v>
       </c>
       <c r="O26" t="n">
-        <v>401.9244357735155</v>
+        <v>401.9244357735153</v>
       </c>
       <c r="P26" t="n">
-        <v>326.5782300595804</v>
+        <v>326.5782300595802</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.7376607725383</v>
+        <v>202.7376607725408</v>
       </c>
       <c r="R26" t="n">
-        <v>33.26301577779124</v>
+        <v>33.26301577779107</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.05025791860805</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>12.41151747643371</v>
       </c>
       <c r="L28" t="n">
-        <v>214.5954363261966</v>
+        <v>72.24975725053071</v>
       </c>
       <c r="M28" t="n">
-        <v>229.2228165413341</v>
+        <v>229.2228165413339</v>
       </c>
       <c r="N28" t="n">
-        <v>90.0045871498568</v>
+        <v>99.13067762358408</v>
       </c>
       <c r="O28" t="n">
-        <v>209.9879713009785</v>
+        <v>209.9879713009783</v>
       </c>
       <c r="P28" t="n">
-        <v>34.42261465240284</v>
+        <v>176.7682937280686</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.2546752436966</v>
+        <v>82.17884268858081</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>185.9608781973361</v>
       </c>
       <c r="K29" t="n">
-        <v>331.2252663149293</v>
+        <v>331.2252663149292</v>
       </c>
       <c r="L29" t="n">
         <v>429.1615272277717</v>
       </c>
       <c r="M29" t="n">
-        <v>476.849527034335</v>
+        <v>476.8495270343349</v>
       </c>
       <c r="N29" t="n">
         <v>466.5882348737065</v>
       </c>
       <c r="O29" t="n">
-        <v>401.9244357735155</v>
+        <v>401.9244357735154</v>
       </c>
       <c r="P29" t="n">
-        <v>326.5782300595804</v>
+        <v>326.5782300595803</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.737660772541</v>
+        <v>202.7376607725409</v>
       </c>
       <c r="R29" t="n">
-        <v>33.26301577779124</v>
+        <v>33.26301577779118</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.05025791860805</v>
+        <v>70.050257918608</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7571965520997</v>
+        <v>12.41151747643371</v>
       </c>
       <c r="L31" t="n">
-        <v>214.5954363261966</v>
+        <v>72.24975725053071</v>
       </c>
       <c r="M31" t="n">
-        <v>86.87713746566811</v>
+        <v>229.222816541334</v>
       </c>
       <c r="N31" t="n">
         <v>90.0045871498568</v>
       </c>
       <c r="O31" t="n">
-        <v>209.9879713009785</v>
+        <v>209.9879713009784</v>
       </c>
       <c r="P31" t="n">
-        <v>55.67728989609945</v>
+        <v>176.7682937280687</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>21.25467524369775</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>470.4314597789856</v>
       </c>
       <c r="O32" t="n">
-        <v>405.7676606787945</v>
+        <v>312.3597674575272</v>
       </c>
       <c r="P32" t="n">
-        <v>237.0135617435911</v>
+        <v>330.4214549648594</v>
       </c>
       <c r="Q32" t="n">
         <v>206.58088567782</v>
@@ -37227,10 +37227,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>89.64397460636005</v>
+        <v>29.47713821927503</v>
       </c>
       <c r="L34" t="n">
-        <v>72.24975725053071</v>
+        <v>218.4386612314757</v>
       </c>
       <c r="M34" t="n">
         <v>86.87713746566811</v>
@@ -37245,7 +37245,7 @@
         <v>180.6115186333478</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.02206759386003</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.864471813759355</v>
+        <v>8.864471813759327</v>
       </c>
       <c r="J35" t="n">
         <v>43.61519912167021</v>
@@ -37318,16 +37318,16 @@
         <v>324.2425557980406</v>
       </c>
       <c r="O35" t="n">
-        <v>259.5787566978495</v>
+        <v>362.706808297236</v>
       </c>
       <c r="P35" t="n">
-        <v>287.3606025833013</v>
+        <v>378.2103806268468</v>
       </c>
       <c r="Q35" t="n">
-        <v>254.3698113398075</v>
+        <v>60.39198169687506</v>
       </c>
       <c r="R35" t="n">
-        <v>84.89516634505777</v>
+        <v>84.89516634505775</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.208917030803919</v>
+        <v>33.83756550171031</v>
       </c>
       <c r="K36" t="n">
         <v>185.718246820946</v>
@@ -37394,7 +37394,7 @@
         <v>416.4721567450781</v>
       </c>
       <c r="N36" t="n">
-        <v>443.0492102334823</v>
+        <v>417.4205617625755</v>
       </c>
       <c r="O36" t="n">
         <v>336.9923406815363</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.380206960197486</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.380206960197249</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37537,16 +37537,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.864471813759355</v>
+        <v>8.864471813759327</v>
       </c>
       <c r="J38" t="n">
-        <v>43.61519912167021</v>
+        <v>237.5930287646026</v>
       </c>
       <c r="K38" t="n">
-        <v>382.8574168821958</v>
+        <v>292.0076388386506</v>
       </c>
       <c r="L38" t="n">
-        <v>389.9438997514925</v>
+        <v>286.8158481521058</v>
       </c>
       <c r="M38" t="n">
         <v>334.503847958669</v>
@@ -37564,7 +37564,7 @@
         <v>60.39198169687506</v>
       </c>
       <c r="R38" t="n">
-        <v>84.89516634505777</v>
+        <v>84.89516634505775</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.83756550171031</v>
+        <v>8.20891703080437</v>
       </c>
       <c r="K39" t="n">
         <v>185.718246820946</v>
@@ -37628,7 +37628,7 @@
         <v>311.1853513637216</v>
       </c>
       <c r="M39" t="n">
-        <v>390.8435082741717</v>
+        <v>416.4721567450781</v>
       </c>
       <c r="N39" t="n">
         <v>443.0492102334823</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.380206960197249</v>
+        <v>1.380206960197472</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.864471813759309</v>
+        <v>8.864471813759213</v>
       </c>
       <c r="J41" t="n">
-        <v>43.61519912167011</v>
+        <v>43.61519912167021</v>
       </c>
       <c r="K41" t="n">
-        <v>292.0076388386513</v>
+        <v>188.8795872392633</v>
       </c>
       <c r="L41" t="n">
-        <v>286.8158481521056</v>
+        <v>286.8158481521058</v>
       </c>
       <c r="M41" t="n">
-        <v>334.5038479586688</v>
+        <v>334.503847958669</v>
       </c>
       <c r="N41" t="n">
-        <v>324.2425557980404</v>
+        <v>427.3706073974282</v>
       </c>
       <c r="O41" t="n">
-        <v>259.5787566978493</v>
+        <v>453.5565863407818</v>
       </c>
       <c r="P41" t="n">
-        <v>184.2325509839143</v>
+        <v>184.2325509839144</v>
       </c>
       <c r="Q41" t="n">
-        <v>254.3698113398074</v>
+        <v>60.39198169687506</v>
       </c>
       <c r="R41" t="n">
-        <v>84.8951663450577</v>
+        <v>84.89516634505763</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>8.208917030804464</v>
+        <v>8.208917030804823</v>
       </c>
       <c r="K42" t="n">
         <v>185.718246820946</v>
       </c>
       <c r="L42" t="n">
-        <v>311.1853513637215</v>
+        <v>311.1853513637216</v>
       </c>
       <c r="M42" t="n">
-        <v>416.472156745078</v>
+        <v>416.4721567450781</v>
       </c>
       <c r="N42" t="n">
-        <v>443.0492102334821</v>
+        <v>443.0492102334823</v>
       </c>
       <c r="O42" t="n">
-        <v>336.9923406815362</v>
+        <v>336.9923406815363</v>
       </c>
       <c r="P42" t="n">
-        <v>253.8735974304456</v>
+        <v>253.8735974304458</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.6260267435103</v>
+        <v>117.6260267435104</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.41151747643365</v>
+        <v>12.41151747643371</v>
       </c>
       <c r="L43" t="n">
-        <v>72.24975725053062</v>
+        <v>72.24975725053071</v>
       </c>
       <c r="M43" t="n">
-        <v>86.87713746566803</v>
+        <v>86.87713746566811</v>
       </c>
       <c r="N43" t="n">
-        <v>90.00458714985673</v>
+        <v>90.0045871498568</v>
       </c>
       <c r="O43" t="n">
-        <v>67.6422922253125</v>
+        <v>67.64229222531256</v>
       </c>
       <c r="P43" t="n">
-        <v>34.42261465240279</v>
+        <v>34.42261465240284</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.380206960197709</v>
+        <v>1.380206960198283</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.864471813759309</v>
+        <v>8.864471813759298</v>
       </c>
       <c r="J44" t="n">
         <v>237.5930287646026</v>
       </c>
       <c r="K44" t="n">
-        <v>188.8795872392632</v>
+        <v>292.0076388386511</v>
       </c>
       <c r="L44" t="n">
-        <v>286.8158481521056</v>
+        <v>286.8158481521058</v>
       </c>
       <c r="M44" t="n">
-        <v>334.5038479586688</v>
+        <v>334.503847958669</v>
       </c>
       <c r="N44" t="n">
-        <v>324.2425557980404</v>
+        <v>324.2425557980406</v>
       </c>
       <c r="O44" t="n">
-        <v>259.5787566978493</v>
+        <v>259.5787566978495</v>
       </c>
       <c r="P44" t="n">
-        <v>184.2325509839143</v>
+        <v>184.2325509839144</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.5200332962625</v>
+        <v>60.39198169687506</v>
       </c>
       <c r="R44" t="n">
-        <v>84.8951663450577</v>
+        <v>84.89516634505772</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>8.208917030804011</v>
+        <v>8.208917030804823</v>
       </c>
       <c r="K45" t="n">
         <v>185.718246820946</v>
       </c>
       <c r="L45" t="n">
-        <v>311.1853513637215</v>
+        <v>311.1853513637216</v>
       </c>
       <c r="M45" t="n">
-        <v>416.472156745078</v>
+        <v>416.4721567450781</v>
       </c>
       <c r="N45" t="n">
-        <v>443.0492102334821</v>
+        <v>443.0492102334823</v>
       </c>
       <c r="O45" t="n">
-        <v>336.9923406815362</v>
+        <v>336.9923406815363</v>
       </c>
       <c r="P45" t="n">
-        <v>253.8735974304456</v>
+        <v>253.8735974304458</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.6260267435103</v>
+        <v>117.6260267435104</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.41151747643365</v>
+        <v>12.41151747643371</v>
       </c>
       <c r="L46" t="n">
-        <v>72.24975725053062</v>
+        <v>72.24975725053071</v>
       </c>
       <c r="M46" t="n">
-        <v>86.87713746566803</v>
+        <v>86.87713746566811</v>
       </c>
       <c r="N46" t="n">
-        <v>90.00458714985673</v>
+        <v>90.0045871498568</v>
       </c>
       <c r="O46" t="n">
-        <v>67.6422922253125</v>
+        <v>67.64229222531256</v>
       </c>
       <c r="P46" t="n">
-        <v>34.42261465240279</v>
+        <v>34.42261465240284</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
